--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Factory\code-fix\desktop-functional-tests\ContentTestingSheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="5865" windowWidth="15210" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="5865"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" r:id="rId1" sheetId="1"/>
-    <sheet name="Women" r:id="rId2" sheetId="6"/>
-    <sheet name="Men" r:id="rId3" sheetId="7"/>
-    <sheet name="Girl" r:id="rId4" sheetId="8"/>
-    <sheet name="Boys" r:id="rId5" sheetId="9"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Women" sheetId="6" r:id="rId2"/>
+    <sheet name="Men" sheetId="7" r:id="rId3"/>
+    <sheet name="Girl" sheetId="8" r:id="rId4"/>
+    <sheet name="Boys" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>Title</t>
   </si>
@@ -44,111 +48,6 @@
     <t>Page Load Time</t>
   </si>
   <si>
-    <t>Top Nav Links Validation</t>
-  </si>
-  <si>
-    <t>For Women</t>
-  </si>
-  <si>
-    <t>For Men</t>
-  </si>
-  <si>
-    <t>For Girls</t>
-  </si>
-  <si>
-    <t>Should Navigate to Expected Page</t>
-  </si>
-  <si>
-    <t>Verify all the Stwwwies Should navigate  to expected page</t>
-  </si>
-  <si>
-    <t>Order Status</t>
-  </si>
-  <si>
-    <t>Shipping &amp; Handling</t>
-  </si>
-  <si>
-    <t>Returns &amp; Exchanges</t>
-  </si>
-  <si>
-    <t>International orders</t>
-  </si>
-  <si>
-    <t>Need Some Help?</t>
-  </si>
-  <si>
-    <t>Exclusive Offers &amp; Promotions</t>
-  </si>
-  <si>
-    <t>Store locator</t>
-  </si>
-  <si>
-    <t>Jcrew Credit card details</t>
-  </si>
-  <si>
-    <t>Apply today and get 15% off</t>
-  </si>
-  <si>
-    <t>Manage your card</t>
-  </si>
-  <si>
-    <t>https://d.comenity.net/jcrew/</t>
-  </si>
-  <si>
-    <t>Jcrew Factory</t>
-  </si>
-  <si>
-    <t>Madewell</t>
-  </si>
-  <si>
-    <t>Our Story</t>
-  </si>
-  <si>
-    <t>Careers</t>
-  </si>
-  <si>
-    <t>https://jobs.jcrew.com/</t>
-  </si>
-  <si>
-    <t>Invester relations</t>
-  </si>
-  <si>
-    <t>CARDIGANS</t>
-  </si>
-  <si>
-    <t>BLAZERS</t>
-  </si>
-  <si>
-    <t>BUSINESS CASUAL Fwww WOMEN</t>
-  </si>
-  <si>
-    <t>Facebook Icon</t>
-  </si>
-  <si>
-    <t>Twitter Icon</t>
-  </si>
-  <si>
-    <t>tumblr icon</t>
-  </si>
-  <si>
-    <t>google + Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Tube </t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Read more</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
     <t>WOMEN</t>
   </si>
   <si>
@@ -290,114 +189,15 @@
     <t>https://hello.jcrew.com/2017-09-september/style-hacks-the-rugby-shirt?intcmp=w8_blog-stylehacks</t>
   </si>
   <si>
-    <t>https://stores.factory.jcrew.com/</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/account/details</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/checkout2/shoppingbag.jsp?sidecar=true&amp;jcrew_atp_view=79&amp;jcrew_sts_view=9</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/womens-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/mens-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/girls-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/boys-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens_special_sizes/petite</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/r/sale</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/AST/Factory/FactoryNavigation/factoryfirst.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/order_status.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/shipping_handling.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/returns_exchanges.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/international_orders.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/contact_us.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/gift_card.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/promo.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/help/teacher-student-discount?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/size-charts-module</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/credit_card.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://www.jcrew.com/?srcCode=FCFooter</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/?srcCode=FCFooter</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/mercantile.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/about_jcrewfactory.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/womens_clothing/chambrayshirts</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/mens-clothing/shirts</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/blazers_outerwear/vests</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/mens-clothing/tees_polos_fleece/polos</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/sweaters/cardigans-shells</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens-clothing/suiting</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/dresses/casualdresses</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/jcrewfactory</t>
-  </si>
-  <si>
-    <t>https://plus.google.com/+JCrewFactory</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/terms_of_use.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/context-chooser</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens_clothing/new_arrivals</t>
   </si>
   <si>
@@ -647,14 +447,13 @@
     <t>https://factory.jcrew.com/c/boys_shops/online_exclusives</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -750,50 +549,48 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -806,7 +603,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -822,7 +619,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -830,7 +627,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -896,7 +693,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
@@ -904,7 +701,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -959,7 +756,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -975,7 +772,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -983,7 +780,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1049,7 +846,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
@@ -1057,7 +854,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1116,10 +913,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1154,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1189,7 +986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1283,21 +1080,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1314,7 +1111,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1366,27 +1163,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="58.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,467 +1207,2128 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>625.0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>4047.0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>23479.0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>200.0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>93</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>99</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>102</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>106</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>107</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
-        <v>119</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1878,11 +3336,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,10 +3365,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1919,10 +3377,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1931,10 +3389,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1943,10 +3401,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1955,10 +3413,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1967,10 +3425,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1979,10 +3437,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1991,10 +3449,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2003,10 +3461,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2015,10 +3473,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2027,10 +3485,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2039,10 +3497,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2051,10 +3509,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2063,10 +3521,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2075,10 +3533,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2087,10 +3545,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2099,10 +3557,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2111,10 +3569,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2123,10 +3581,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2135,10 +3593,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2147,10 +3605,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2159,10 +3617,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2171,10 +3629,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2183,10 +3641,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2195,10 +3653,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2207,10 +3665,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2219,10 +3677,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2231,10 +3689,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2243,10 +3701,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2255,10 +3713,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2267,10 +3725,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2279,10 +3737,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2291,10 +3749,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2303,10 +3761,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2315,10 +3773,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2327,10 +3785,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2339,10 +3797,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2351,10 +3809,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2363,10 +3821,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2375,10 +3833,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2386,15 +3844,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2402,11 +3860,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,7 +3890,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="15" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2442,7 +3900,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="15" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2452,7 +3910,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2462,7 +3920,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2472,7 +3930,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2482,7 +3940,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2492,7 +3950,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="15" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2502,7 +3960,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2512,7 +3970,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2522,7 +3980,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2532,7 +3990,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2542,7 +4000,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2552,7 +4010,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2562,7 +4020,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2572,7 +4030,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2582,7 +4040,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2592,7 +4050,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="15" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2602,7 +4060,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="15" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2612,7 +4070,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2622,7 +4080,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="15" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2632,7 +4090,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="15" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2642,7 +4100,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="15" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2652,7 +4110,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="15" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2662,7 +4120,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="15" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2672,7 +4130,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="15" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2682,7 +4140,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="15" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2692,7 +4150,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="15" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2702,7 +4160,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2712,7 +4170,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="15" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2722,7 +4180,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="15" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2810,15 +4268,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -2826,12 +4284,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +4315,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2867,7 +4325,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="15" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2877,7 +4335,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2887,7 +4345,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2897,7 +4355,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="15" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2907,7 +4365,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2917,7 +4375,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="15" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2927,7 +4385,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="16" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2937,7 +4395,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2947,7 +4405,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2957,7 +4415,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2967,7 +4425,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2977,7 +4435,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2987,7 +4445,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2997,7 +4455,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3007,7 +4465,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3103,13 +4561,13 @@
       <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -3117,11 +4575,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="72.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3146,8 +4604,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
-        <v>194</v>
+      <c r="B2" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3156,8 +4614,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
-        <v>128</v>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3166,8 +4624,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
-        <v>195</v>
+      <c r="B4" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3176,8 +4634,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="18" t="s">
-        <v>196</v>
+      <c r="B5" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3186,8 +4644,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="18" t="s">
-        <v>197</v>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3196,8 +4654,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="18" t="s">
-        <v>198</v>
+      <c r="B7" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3206,8 +4664,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="18" t="s">
-        <v>199</v>
+      <c r="B8" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3216,8 +4674,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="18" t="s">
-        <v>199</v>
+      <c r="B9" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3226,8 +4684,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="18" t="s">
-        <v>200</v>
+      <c r="B10" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3236,8 +4694,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
-        <v>201</v>
+      <c r="B11" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3246,8 +4704,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="18" t="s">
-        <v>202</v>
+      <c r="B12" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3256,8 +4714,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="18" t="s">
-        <v>203</v>
+      <c r="B13" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3266,8 +4724,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="18" t="s">
-        <v>204</v>
+      <c r="B14" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3276,8 +4734,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="18" t="s">
-        <v>205</v>
+      <c r="B15" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3285,11 +4743,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>206</v>
+      <c r="B16" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Factory\code-fix\desktop-functional-tests\ContentTestingSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="5865"/>
+    <workbookView windowHeight="5865" windowWidth="15210" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Women" sheetId="6" r:id="rId2"/>
-    <sheet name="Men" sheetId="7" r:id="rId3"/>
-    <sheet name="Girl" sheetId="8" r:id="rId4"/>
-    <sheet name="Boys" sheetId="9" r:id="rId5"/>
+    <sheet name="Home" r:id="rId1" sheetId="1"/>
+    <sheet name="Women" r:id="rId2" sheetId="6"/>
+    <sheet name="Men" r:id="rId3" sheetId="7"/>
+    <sheet name="Girl" r:id="rId4" sheetId="8"/>
+    <sheet name="Boys" r:id="rId5" sheetId="9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="208">
   <si>
     <t>Title</t>
   </si>
@@ -48,6 +44,111 @@
     <t>Page Load Time</t>
   </si>
   <si>
+    <t>Top Nav Links Validation</t>
+  </si>
+  <si>
+    <t>For Women</t>
+  </si>
+  <si>
+    <t>For Men</t>
+  </si>
+  <si>
+    <t>For Girls</t>
+  </si>
+  <si>
+    <t>Should Navigate to Expected Page</t>
+  </si>
+  <si>
+    <t>Verify all the Stwwwies Should navigate  to expected page</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Handling</t>
+  </si>
+  <si>
+    <t>Returns &amp; Exchanges</t>
+  </si>
+  <si>
+    <t>International orders</t>
+  </si>
+  <si>
+    <t>Need Some Help?</t>
+  </si>
+  <si>
+    <t>Exclusive Offers &amp; Promotions</t>
+  </si>
+  <si>
+    <t>Store locator</t>
+  </si>
+  <si>
+    <t>Jcrew Credit card details</t>
+  </si>
+  <si>
+    <t>Apply today and get 15% off</t>
+  </si>
+  <si>
+    <t>Manage your card</t>
+  </si>
+  <si>
+    <t>https://d.comenity.net/jcrew/</t>
+  </si>
+  <si>
+    <t>Jcrew Factory</t>
+  </si>
+  <si>
+    <t>Madewell</t>
+  </si>
+  <si>
+    <t>Our Story</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>https://jobs.jcrew.com/</t>
+  </si>
+  <si>
+    <t>Invester relations</t>
+  </si>
+  <si>
+    <t>CARDIGANS</t>
+  </si>
+  <si>
+    <t>BLAZERS</t>
+  </si>
+  <si>
+    <t>BUSINESS CASUAL Fwww WOMEN</t>
+  </si>
+  <si>
+    <t>Facebook Icon</t>
+  </si>
+  <si>
+    <t>Twitter Icon</t>
+  </si>
+  <si>
+    <t>tumblr icon</t>
+  </si>
+  <si>
+    <t>google + Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Tube </t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Read more</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
     <t>WOMEN</t>
   </si>
   <si>
@@ -189,15 +290,114 @@
     <t>https://hello.jcrew.com/2017-09-september/style-hacks-the-rugby-shirt?intcmp=w8_blog-stylehacks</t>
   </si>
   <si>
+    <t>https://stores.factory.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/account/details</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/checkout2/shoppingbag.jsp?sidecar=true&amp;jcrew_atp_view=79&amp;jcrew_sts_view=9</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/womens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/mens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/girls-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/boys-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
     <t>https://factory.jcrew.com/c/womens_special_sizes/petite</t>
   </si>
   <si>
+    <t>https://factory.jcrew.com/r/sale</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/AST/Factory/FactoryNavigation/factoryfirst.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/order_status.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/shipping_handling.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/returns_exchanges.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/international_orders.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/contact_us.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/gift_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/promo.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/help/teacher-student-discount?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/size-charts-module</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/credit_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/?srcCode=FCFooter</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/?srcCode=FCFooter</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/mercantile.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/about_jcrewfactory.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens_clothing/chambrayshirts</t>
+  </si>
+  <si>
     <t>https://factory.jcrew.com/c/mens-clothing/shirts</t>
   </si>
   <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/blazers_outerwear/vests</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/mens-clothing/tees_polos_fleece/polos</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/sweaters/cardigans-shells</t>
+  </si>
+  <si>
     <t>https://factory.jcrew.com/c/womens-clothing/suiting</t>
   </si>
   <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/dresses/casualdresses</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jcrewfactory</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+JCrewFactory</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/terms_of_use.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/context-chooser</t>
+  </si>
+  <si>
     <t>https://factory.jcrew.com/c/womens_clothing/new_arrivals</t>
   </si>
   <si>
@@ -447,13 +647,14 @@
     <t>https://factory.jcrew.com/c/boys_shops/online_exclusives</t>
   </si>
   <si>
-    <t/>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,48 +750,50 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,7 +806,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -619,7 +822,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
+        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -627,7 +830,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -693,7 +896,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
+        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
@@ -701,7 +904,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -756,7 +959,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -772,7 +975,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
+        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -780,7 +983,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -846,7 +1049,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
+        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
@@ -854,7 +1057,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -913,10 +1116,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -951,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -986,7 +1189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1080,21 +1283,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1111,7 +1314,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1163,27 +1366,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,2128 +1410,467 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4047.0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>23479.0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>200.0</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="B38" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="B40" s="15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="B41" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -3336,11 +1878,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,10 +1907,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3377,10 +1919,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3389,10 +1931,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3401,10 +1943,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3413,10 +1955,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3425,10 +1967,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3437,10 +1979,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3449,10 +1991,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3461,10 +2003,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3473,10 +2015,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3485,10 +2027,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3497,10 +2039,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3509,10 +2051,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3521,10 +2063,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3533,10 +2075,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3545,10 +2087,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3557,10 +2099,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3569,10 +2111,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3581,10 +2123,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3593,10 +2135,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3605,10 +2147,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3617,10 +2159,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3629,10 +2171,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3641,10 +2183,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3653,10 +2195,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3665,10 +2207,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3677,10 +2219,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3689,10 +2231,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3701,10 +2243,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3713,10 +2255,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3725,10 +2267,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3737,10 +2279,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3749,10 +2291,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3761,10 +2303,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3773,10 +2315,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3785,10 +2327,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3797,10 +2339,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3809,10 +2351,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3821,10 +2363,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3833,10 +2375,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3844,15 +2386,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -3860,11 +2402,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,7 +2432,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="15" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3900,7 +2442,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="15" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3910,7 +2452,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3920,7 +2462,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3930,7 +2472,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3940,7 +2482,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3950,7 +2492,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="15" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3960,7 +2502,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3970,7 +2512,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3980,7 +2522,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3990,7 +2532,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4000,7 +2542,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4010,7 +2552,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4020,7 +2562,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4030,7 +2572,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4040,7 +2582,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4050,7 +2592,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="15" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4060,7 +2602,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="15" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4070,7 +2612,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="15" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4080,7 +2622,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="15" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4090,7 +2632,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="15" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4100,7 +2642,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4110,7 +2652,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4120,7 +2662,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4130,7 +2672,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="15" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4140,7 +2682,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="15" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4150,7 +2692,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="15" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4160,7 +2702,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="15" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4170,7 +2712,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="15" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4180,7 +2722,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="15" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4268,15 +2810,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -4284,12 +2826,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,7 +2857,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="15" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4325,7 +2867,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="15" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4335,7 +2877,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4345,7 +2887,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4355,7 +2897,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="15" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4365,7 +2907,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="15" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4375,7 +2917,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="15" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4385,7 +2927,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="16" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4395,7 +2937,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4405,7 +2947,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4415,7 +2957,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4425,7 +2967,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4435,7 +2977,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4445,7 +2987,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4455,7 +2997,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4465,7 +3007,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4561,13 +3103,13 @@
       <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -4575,11 +3117,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="72.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,8 +3146,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="17" t="s">
-        <v>126</v>
+      <c r="B2" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4614,8 +3156,8 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="17" t="s">
-        <v>60</v>
+      <c r="B3" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4624,8 +3166,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="17" t="s">
-        <v>127</v>
+      <c r="B4" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4634,8 +3176,8 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="17" t="s">
-        <v>128</v>
+      <c r="B5" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4644,8 +3186,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="17" t="s">
-        <v>129</v>
+      <c r="B6" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4654,8 +3196,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="17" t="s">
-        <v>130</v>
+      <c r="B7" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4664,8 +3206,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
-        <v>131</v>
+      <c r="B8" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4674,8 +3216,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
-        <v>131</v>
+      <c r="B9" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4684,8 +3226,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
-        <v>132</v>
+      <c r="B10" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4694,8 +3236,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="17" t="s">
-        <v>133</v>
+      <c r="B11" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4704,8 +3246,8 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="17" t="s">
-        <v>134</v>
+      <c r="B12" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4714,8 +3256,8 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="17" t="s">
-        <v>135</v>
+      <c r="B13" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4724,8 +3266,8 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="17" t="s">
-        <v>136</v>
+      <c r="B14" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4734,8 +3276,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="17" t="s">
-        <v>137</v>
+      <c r="B15" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4743,11 +3285,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>138</v>
+      <c r="B16" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="5865" windowWidth="15210" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="5865"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" r:id="rId1" sheetId="1"/>
-    <sheet name="Women" r:id="rId2" sheetId="6"/>
-    <sheet name="Men" r:id="rId3" sheetId="7"/>
-    <sheet name="Girl" r:id="rId4" sheetId="8"/>
-    <sheet name="Boys" r:id="rId5" sheetId="9"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Women" sheetId="6" r:id="rId2"/>
+    <sheet name="Men" sheetId="7" r:id="rId3"/>
+    <sheet name="Girl" sheetId="8" r:id="rId4"/>
+    <sheet name="Boys" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>Title</t>
   </si>
@@ -44,111 +44,6 @@
     <t>Page Load Time</t>
   </si>
   <si>
-    <t>Top Nav Links Validation</t>
-  </si>
-  <si>
-    <t>For Women</t>
-  </si>
-  <si>
-    <t>For Men</t>
-  </si>
-  <si>
-    <t>For Girls</t>
-  </si>
-  <si>
-    <t>Should Navigate to Expected Page</t>
-  </si>
-  <si>
-    <t>Verify all the Stwwwies Should navigate  to expected page</t>
-  </si>
-  <si>
-    <t>Order Status</t>
-  </si>
-  <si>
-    <t>Shipping &amp; Handling</t>
-  </si>
-  <si>
-    <t>Returns &amp; Exchanges</t>
-  </si>
-  <si>
-    <t>International orders</t>
-  </si>
-  <si>
-    <t>Need Some Help?</t>
-  </si>
-  <si>
-    <t>Exclusive Offers &amp; Promotions</t>
-  </si>
-  <si>
-    <t>Store locator</t>
-  </si>
-  <si>
-    <t>Jcrew Credit card details</t>
-  </si>
-  <si>
-    <t>Apply today and get 15% off</t>
-  </si>
-  <si>
-    <t>Manage your card</t>
-  </si>
-  <si>
-    <t>https://d.comenity.net/jcrew/</t>
-  </si>
-  <si>
-    <t>Jcrew Factory</t>
-  </si>
-  <si>
-    <t>Madewell</t>
-  </si>
-  <si>
-    <t>Our Story</t>
-  </si>
-  <si>
-    <t>Careers</t>
-  </si>
-  <si>
-    <t>https://jobs.jcrew.com/</t>
-  </si>
-  <si>
-    <t>Invester relations</t>
-  </si>
-  <si>
-    <t>CARDIGANS</t>
-  </si>
-  <si>
-    <t>BLAZERS</t>
-  </si>
-  <si>
-    <t>BUSINESS CASUAL Fwww WOMEN</t>
-  </si>
-  <si>
-    <t>Facebook Icon</t>
-  </si>
-  <si>
-    <t>Twitter Icon</t>
-  </si>
-  <si>
-    <t>tumblr icon</t>
-  </si>
-  <si>
-    <t>google + Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Tube </t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Read more</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
     <t>WOMEN</t>
   </si>
   <si>
@@ -290,114 +185,15 @@
     <t>https://hello.jcrew.com/2017-09-september/style-hacks-the-rugby-shirt?intcmp=w8_blog-stylehacks</t>
   </si>
   <si>
-    <t>https://stores.factory.jcrew.com/</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/account/details</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/checkout2/shoppingbag.jsp?sidecar=true&amp;jcrew_atp_view=79&amp;jcrew_sts_view=9</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/womens-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/mens-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/girls-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/boys-clothing.jsp?sidecar=true</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens_special_sizes/petite</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/r/sale</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/AST/Factory/FactoryNavigation/factoryfirst.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/order_status.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/shipping_handling.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/returns_exchanges.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/international_orders.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/contact_us.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/gift_card.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/promo.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/help/teacher-student-discount?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/size-charts-module</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/credit_card.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://www.jcrew.com/?srcCode=FCFooter</t>
-  </si>
-  <si>
-    <t>https://www.madewell.com/?srcCode=FCFooter</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/mercantile.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/about_jcrewfactory.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/womens_clothing/chambrayshirts</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/mens-clothing/shirts</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/blazers_outerwear/vests</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/mens-clothing/tees_polos_fleece/polos</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/sweaters/cardigans-shells</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens-clothing/suiting</t>
   </si>
   <si>
-    <t>https://factory.jcrew.com/c/womens-clothing/dresses/casualdresses</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/jcrewfactory</t>
-  </si>
-  <si>
-    <t>https://plus.google.com/+JCrewFactory</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/help/terms_of_use.jsp?sidecar=true</t>
-  </si>
-  <si>
-    <t>https://factory.jcrew.com/r/context-chooser</t>
-  </si>
-  <si>
     <t>https://factory.jcrew.com/c/womens_clothing/new_arrivals</t>
   </si>
   <si>
@@ -645,16 +441,12 @@
   </si>
   <si>
     <t>https://factory.jcrew.com/c/boys_shops/online_exclusives</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -748,52 +540,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -806,7 +619,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -822,7 +635,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -830,7 +643,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -896,7 +709,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
@@ -904,7 +717,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -959,7 +772,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -975,7 +788,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -983,7 +796,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1049,7 +862,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
@@ -1057,7 +870,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1116,10 +929,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1154,7 +967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1189,7 +1002,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1283,21 +1096,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1314,7 +1127,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1366,511 +1179,6187 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="58.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>625.0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>4047.0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>23479.0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>123</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="16"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="16"/>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="16"/>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="16"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="16"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="16"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="16"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="16"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="16"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="16"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="16"/>
+      <c r="B234" s="16"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="16"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="16"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="16"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="16"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="16"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="16"/>
+      <c r="B247" s="16"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="16"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="E249" s="16"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="16"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="16"/>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="16"/>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="16"/>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="16"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="16"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="16"/>
+      <c r="B255" s="16"/>
+      <c r="C255" s="16"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="16"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="16"/>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="16"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="16"/>
+      <c r="D257" s="16"/>
+      <c r="E257" s="16"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="16"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="16"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="16"/>
+      <c r="D260" s="16"/>
+      <c r="E260" s="16"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="16"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="16"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="16"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="16"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="16"/>
+      <c r="G263" s="16"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="16"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="16"/>
+      <c r="D264" s="16"/>
+      <c r="E264" s="16"/>
+      <c r="F264" s="16"/>
+      <c r="G264" s="16"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="16"/>
+      <c r="F265" s="16"/>
+      <c r="G265" s="16"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="16"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="16"/>
+      <c r="E266" s="16"/>
+      <c r="F266" s="16"/>
+      <c r="G266" s="16"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="16"/>
+      <c r="B268" s="16"/>
+      <c r="C268" s="16"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="16"/>
+      <c r="F268" s="16"/>
+      <c r="G268" s="16"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="16"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="16"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="16"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="16"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="16"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="16"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="16"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="16"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="16"/>
+      <c r="B273" s="16"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="16"/>
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="16"/>
+      <c r="B276" s="16"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="16"/>
+      <c r="B277" s="16"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="16"/>
+      <c r="B279" s="16"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="16"/>
+      <c r="B280" s="16"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="16"/>
+      <c r="B281" s="16"/>
+      <c r="C281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="16"/>
+      <c r="B282" s="16"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="16"/>
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="16"/>
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="16"/>
+      <c r="B285" s="16"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="16"/>
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="16"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="16"/>
+      <c r="B289" s="16"/>
+      <c r="C289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="16"/>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="16"/>
+      <c r="B291" s="16"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="16"/>
+      <c r="B292" s="16"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="16"/>
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="16"/>
+      <c r="B294" s="16"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="16"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="16"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="16"/>
+      <c r="B297" s="16"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="16"/>
+      <c r="B298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="16"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="16"/>
+      <c r="B299" s="16"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="16"/>
+      <c r="E299" s="16"/>
+      <c r="F299" s="16"/>
+      <c r="G299" s="16"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="16"/>
+      <c r="B300" s="16"/>
+      <c r="C300" s="16"/>
+      <c r="D300" s="16"/>
+      <c r="E300" s="16"/>
+      <c r="F300" s="16"/>
+      <c r="G300" s="16"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="16"/>
+      <c r="B301" s="16"/>
+      <c r="C301" s="16"/>
+      <c r="D301" s="16"/>
+      <c r="E301" s="16"/>
+      <c r="F301" s="16"/>
+      <c r="G301" s="16"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="16"/>
+      <c r="B302" s="16"/>
+      <c r="C302" s="16"/>
+      <c r="D302" s="16"/>
+      <c r="E302" s="16"/>
+      <c r="F302" s="16"/>
+      <c r="G302" s="16"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="16"/>
+      <c r="B303" s="16"/>
+      <c r="C303" s="16"/>
+      <c r="D303" s="16"/>
+      <c r="E303" s="16"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="16"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="16"/>
+      <c r="B304" s="16"/>
+      <c r="C304" s="16"/>
+      <c r="D304" s="16"/>
+      <c r="E304" s="16"/>
+      <c r="F304" s="16"/>
+      <c r="G304" s="16"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="16"/>
+      <c r="B305" s="16"/>
+      <c r="C305" s="16"/>
+      <c r="D305" s="16"/>
+      <c r="E305" s="16"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="16"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="16"/>
+      <c r="B306" s="16"/>
+      <c r="C306" s="16"/>
+      <c r="D306" s="16"/>
+      <c r="E306" s="16"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="16"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="16"/>
+      <c r="B307" s="16"/>
+      <c r="C307" s="16"/>
+      <c r="D307" s="16"/>
+      <c r="E307" s="16"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="16"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="16"/>
+      <c r="B308" s="16"/>
+      <c r="C308" s="16"/>
+      <c r="D308" s="16"/>
+      <c r="E308" s="16"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="16"/>
+      <c r="B309" s="16"/>
+      <c r="C309" s="16"/>
+      <c r="D309" s="16"/>
+      <c r="E309" s="16"/>
+      <c r="F309" s="16"/>
+      <c r="G309" s="16"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="16"/>
+      <c r="B310" s="16"/>
+      <c r="C310" s="16"/>
+      <c r="D310" s="16"/>
+      <c r="E310" s="16"/>
+      <c r="F310" s="16"/>
+      <c r="G310" s="16"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="16"/>
+      <c r="B311" s="16"/>
+      <c r="C311" s="16"/>
+      <c r="D311" s="16"/>
+      <c r="E311" s="16"/>
+      <c r="F311" s="16"/>
+      <c r="G311" s="16"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="16"/>
+      <c r="B312" s="16"/>
+      <c r="C312" s="16"/>
+      <c r="D312" s="16"/>
+      <c r="E312" s="16"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="16"/>
+      <c r="B313" s="16"/>
+      <c r="C313" s="16"/>
+      <c r="D313" s="16"/>
+      <c r="E313" s="16"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="16"/>
+      <c r="B314" s="16"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="16"/>
+      <c r="B315" s="16"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="16"/>
+      <c r="B316" s="16"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="16"/>
+      <c r="B317" s="16"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="16"/>
+      <c r="B318" s="16"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="16"/>
+      <c r="B319" s="16"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="16"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="16"/>
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="16"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="16"/>
+      <c r="B321" s="16"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="16"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="16"/>
+      <c r="B322" s="16"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="16"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="16"/>
+      <c r="B323" s="16"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="16"/>
+      <c r="B324" s="16"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="16"/>
+      <c r="B325" s="16"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="16"/>
+      <c r="B326" s="16"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="16"/>
+      <c r="B327" s="16"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="16"/>
+      <c r="B328" s="16"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="16"/>
+      <c r="B329" s="16"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="16"/>
+      <c r="B330" s="16"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="16"/>
+      <c r="B331" s="16"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="16"/>
+      <c r="B332" s="16"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="16"/>
+      <c r="B333" s="16"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="16"/>
+      <c r="B334" s="16"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="16"/>
+      <c r="B335" s="16"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="16"/>
+      <c r="B336" s="16"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="16"/>
+      <c r="B337" s="16"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="16"/>
+      <c r="B338" s="16"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="16"/>
+      <c r="B339" s="16"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="16"/>
+      <c r="B340" s="16"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="16"/>
+      <c r="B341" s="16"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="16"/>
+      <c r="B342" s="16"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="16"/>
+      <c r="B343" s="16"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="16"/>
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="16"/>
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="16"/>
+      <c r="B346" s="16"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="16"/>
+      <c r="B347" s="16"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="16"/>
+      <c r="B348" s="16"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="16"/>
+      <c r="B349" s="16"/>
+      <c r="C349" s="16"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="16"/>
+      <c r="B350" s="16"/>
+      <c r="C350" s="16"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="16"/>
+      <c r="B351" s="16"/>
+      <c r="C351" s="16"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="16"/>
+      <c r="B352" s="16"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="16"/>
+      <c r="B353" s="16"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="16"/>
+      <c r="B354" s="16"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="16"/>
+      <c r="B355" s="16"/>
+      <c r="C355" s="16"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="16"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
+      <c r="G356" s="16"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="16"/>
+      <c r="B357" s="16"/>
+      <c r="C357" s="16"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
+      <c r="G357" s="16"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="16"/>
+      <c r="B358" s="16"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
+      <c r="G358" s="16"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="16"/>
+      <c r="B359" s="16"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="16"/>
+      <c r="B360" s="16"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="16"/>
+      <c r="B361" s="16"/>
+      <c r="C361" s="16"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="16"/>
+      <c r="F361" s="16"/>
+      <c r="G361" s="16"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="16"/>
+      <c r="B362" s="16"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="16"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="16"/>
+      <c r="B363" s="16"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="16"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="16"/>
+      <c r="B364" s="16"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="16"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="16"/>
+      <c r="B365" s="16"/>
+      <c r="C365" s="16"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
+      <c r="G365" s="16"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="16"/>
+      <c r="B366" s="16"/>
+      <c r="C366" s="16"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="16"/>
+      <c r="F366" s="16"/>
+      <c r="G366" s="16"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="16"/>
+      <c r="B367" s="16"/>
+      <c r="C367" s="16"/>
+      <c r="D367" s="16"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="16"/>
+      <c r="G367" s="16"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="16"/>
+      <c r="B368" s="16"/>
+      <c r="C368" s="16"/>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16"/>
+      <c r="F368" s="16"/>
+      <c r="G368" s="16"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="16"/>
+      <c r="B369" s="16"/>
+      <c r="C369" s="16"/>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16"/>
+      <c r="F369" s="16"/>
+      <c r="G369" s="16"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="16"/>
+      <c r="B370" s="16"/>
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
+      <c r="G370" s="16"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="16"/>
+      <c r="B371" s="16"/>
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
+      <c r="G371" s="16"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="16"/>
+      <c r="B372" s="16"/>
+      <c r="C372" s="16"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="16"/>
+      <c r="B373" s="16"/>
+      <c r="C373" s="16"/>
+      <c r="D373" s="16"/>
+      <c r="E373" s="16"/>
+      <c r="F373" s="16"/>
+      <c r="G373" s="16"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="16"/>
+      <c r="B374" s="16"/>
+      <c r="C374" s="16"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="16"/>
+      <c r="F374" s="16"/>
+      <c r="G374" s="16"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="16"/>
+      <c r="B375" s="16"/>
+      <c r="C375" s="16"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="16"/>
+      <c r="F375" s="16"/>
+      <c r="G375" s="16"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="16"/>
+      <c r="B376" s="16"/>
+      <c r="C376" s="16"/>
+      <c r="D376" s="16"/>
+      <c r="E376" s="16"/>
+      <c r="F376" s="16"/>
+      <c r="G376" s="16"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="16"/>
+      <c r="B377" s="16"/>
+      <c r="C377" s="16"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="16"/>
+      <c r="F377" s="16"/>
+      <c r="G377" s="16"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="16"/>
+      <c r="B378" s="16"/>
+      <c r="C378" s="16"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="16"/>
+      <c r="F378" s="16"/>
+      <c r="G378" s="16"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="16"/>
+      <c r="B379" s="16"/>
+      <c r="C379" s="16"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
+      <c r="G379" s="16"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="16"/>
+      <c r="B380" s="16"/>
+      <c r="C380" s="16"/>
+      <c r="D380" s="16"/>
+      <c r="E380" s="16"/>
+      <c r="F380" s="16"/>
+      <c r="G380" s="16"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="16"/>
+      <c r="B381" s="16"/>
+      <c r="C381" s="16"/>
+      <c r="D381" s="16"/>
+      <c r="E381" s="16"/>
+      <c r="F381" s="16"/>
+      <c r="G381" s="16"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="16"/>
+      <c r="B382" s="16"/>
+      <c r="C382" s="16"/>
+      <c r="D382" s="16"/>
+      <c r="E382" s="16"/>
+      <c r="F382" s="16"/>
+      <c r="G382" s="16"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="16"/>
+      <c r="B383" s="16"/>
+      <c r="C383" s="16"/>
+      <c r="D383" s="16"/>
+      <c r="E383" s="16"/>
+      <c r="F383" s="16"/>
+      <c r="G383" s="16"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="16"/>
+      <c r="B384" s="16"/>
+      <c r="C384" s="16"/>
+      <c r="D384" s="16"/>
+      <c r="E384" s="16"/>
+      <c r="F384" s="16"/>
+      <c r="G384" s="16"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="16"/>
+      <c r="B385" s="16"/>
+      <c r="C385" s="16"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="16"/>
+      <c r="G385" s="16"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="16"/>
+      <c r="B386" s="16"/>
+      <c r="C386" s="16"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
+      <c r="G386" s="16"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="16"/>
+      <c r="B387" s="16"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
+      <c r="G387" s="16"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="16"/>
+      <c r="B388" s="16"/>
+      <c r="C388" s="16"/>
+      <c r="D388" s="16"/>
+      <c r="E388" s="16"/>
+      <c r="F388" s="16"/>
+      <c r="G388" s="16"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="16"/>
+      <c r="B389" s="16"/>
+      <c r="C389" s="16"/>
+      <c r="D389" s="16"/>
+      <c r="E389" s="16"/>
+      <c r="F389" s="16"/>
+      <c r="G389" s="16"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="16"/>
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
+      <c r="E390" s="16"/>
+      <c r="F390" s="16"/>
+      <c r="G390" s="16"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="16"/>
+      <c r="B391" s="16"/>
+      <c r="C391" s="16"/>
+      <c r="D391" s="16"/>
+      <c r="E391" s="16"/>
+      <c r="F391" s="16"/>
+      <c r="G391" s="16"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="16"/>
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
+      <c r="G392" s="16"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="16"/>
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
+      <c r="E393" s="16"/>
+      <c r="F393" s="16"/>
+      <c r="G393" s="16"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="16"/>
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
+      <c r="G394" s="16"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="16"/>
+      <c r="B395" s="16"/>
+      <c r="C395" s="16"/>
+      <c r="D395" s="16"/>
+      <c r="E395" s="16"/>
+      <c r="F395" s="16"/>
+      <c r="G395" s="16"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="16"/>
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
+      <c r="D396" s="16"/>
+      <c r="E396" s="16"/>
+      <c r="F396" s="16"/>
+      <c r="G396" s="16"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="16"/>
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
+      <c r="E397" s="16"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="16"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
+      <c r="D398" s="16"/>
+      <c r="E398" s="16"/>
+      <c r="F398" s="16"/>
+      <c r="G398" s="16"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="16"/>
+      <c r="B399" s="16"/>
+      <c r="C399" s="16"/>
+      <c r="D399" s="16"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="16"/>
+      <c r="G399" s="16"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="16"/>
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="16"/>
+      <c r="G400" s="16"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="16"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="16"/>
+      <c r="G401" s="16"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="16"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
+      <c r="G402" s="16"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="16"/>
+      <c r="B403" s="16"/>
+      <c r="C403" s="16"/>
+      <c r="D403" s="16"/>
+      <c r="E403" s="16"/>
+      <c r="F403" s="16"/>
+      <c r="G403" s="16"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="16"/>
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
+      <c r="E404" s="16"/>
+      <c r="F404" s="16"/>
+      <c r="G404" s="16"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="16"/>
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
+      <c r="G405" s="16"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="16"/>
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
+      <c r="G406" s="16"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="16"/>
+      <c r="B407" s="16"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="16"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
+      <c r="G407" s="16"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="16"/>
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="16"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="16"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
+      <c r="E409" s="16"/>
+      <c r="F409" s="16"/>
+      <c r="G409" s="16"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="16"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
+      <c r="E410" s="16"/>
+      <c r="F410" s="16"/>
+      <c r="G410" s="16"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="16"/>
+      <c r="B411" s="16"/>
+      <c r="C411" s="16"/>
+      <c r="D411" s="16"/>
+      <c r="E411" s="16"/>
+      <c r="F411" s="16"/>
+      <c r="G411" s="16"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="16"/>
+      <c r="B412" s="16"/>
+      <c r="C412" s="16"/>
+      <c r="D412" s="16"/>
+      <c r="E412" s="16"/>
+      <c r="F412" s="16"/>
+      <c r="G412" s="16"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="16"/>
+      <c r="B413" s="16"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
+      <c r="G413" s="16"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="16"/>
+      <c r="B414" s="16"/>
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
+      <c r="G414" s="16"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="16"/>
+      <c r="B415" s="16"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
+      <c r="G415" s="16"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="16"/>
+      <c r="B416" s="16"/>
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
+      <c r="G416" s="16"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="16"/>
+      <c r="B417" s="16"/>
+      <c r="C417" s="16"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
+      <c r="G417" s="16"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="16"/>
+      <c r="B418" s="16"/>
+      <c r="C418" s="16"/>
+      <c r="D418" s="16"/>
+      <c r="E418" s="16"/>
+      <c r="F418" s="16"/>
+      <c r="G418" s="16"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="16"/>
+      <c r="B419" s="16"/>
+      <c r="C419" s="16"/>
+      <c r="D419" s="16"/>
+      <c r="E419" s="16"/>
+      <c r="F419" s="16"/>
+      <c r="G419" s="16"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="16"/>
+      <c r="B420" s="16"/>
+      <c r="C420" s="16"/>
+      <c r="D420" s="16"/>
+      <c r="E420" s="16"/>
+      <c r="F420" s="16"/>
+      <c r="G420" s="16"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="16"/>
+      <c r="B421" s="16"/>
+      <c r="C421" s="16"/>
+      <c r="D421" s="16"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="16"/>
+      <c r="G421" s="16"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="16"/>
+      <c r="B422" s="16"/>
+      <c r="C422" s="16"/>
+      <c r="D422" s="16"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="16"/>
+      <c r="G422" s="16"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="16"/>
+      <c r="B423" s="16"/>
+      <c r="C423" s="16"/>
+      <c r="D423" s="16"/>
+      <c r="E423" s="16"/>
+      <c r="F423" s="16"/>
+      <c r="G423" s="16"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="16"/>
+      <c r="B424" s="16"/>
+      <c r="C424" s="16"/>
+      <c r="D424" s="16"/>
+      <c r="E424" s="16"/>
+      <c r="F424" s="16"/>
+      <c r="G424" s="16"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="16"/>
+      <c r="B425" s="16"/>
+      <c r="C425" s="16"/>
+      <c r="D425" s="16"/>
+      <c r="E425" s="16"/>
+      <c r="F425" s="16"/>
+      <c r="G425" s="16"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="16"/>
+      <c r="B426" s="16"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16"/>
+      <c r="F426" s="16"/>
+      <c r="G426" s="16"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="16"/>
+      <c r="B427" s="16"/>
+      <c r="C427" s="16"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="16"/>
+      <c r="F427" s="16"/>
+      <c r="G427" s="16"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="16"/>
+      <c r="B428" s="16"/>
+      <c r="C428" s="16"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
+      <c r="G428" s="16"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="16"/>
+      <c r="B429" s="16"/>
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="16"/>
+      <c r="F429" s="16"/>
+      <c r="G429" s="16"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="16"/>
+      <c r="B430" s="16"/>
+      <c r="C430" s="16"/>
+      <c r="D430" s="16"/>
+      <c r="E430" s="16"/>
+      <c r="F430" s="16"/>
+      <c r="G430" s="16"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="16"/>
+      <c r="B431" s="16"/>
+      <c r="C431" s="16"/>
+      <c r="D431" s="16"/>
+      <c r="E431" s="16"/>
+      <c r="F431" s="16"/>
+      <c r="G431" s="16"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="16"/>
+      <c r="B432" s="16"/>
+      <c r="C432" s="16"/>
+      <c r="D432" s="16"/>
+      <c r="E432" s="16"/>
+      <c r="F432" s="16"/>
+      <c r="G432" s="16"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="16"/>
+      <c r="B433" s="16"/>
+      <c r="C433" s="16"/>
+      <c r="D433" s="16"/>
+      <c r="E433" s="16"/>
+      <c r="F433" s="16"/>
+      <c r="G433" s="16"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="16"/>
+      <c r="B434" s="16"/>
+      <c r="C434" s="16"/>
+      <c r="D434" s="16"/>
+      <c r="E434" s="16"/>
+      <c r="F434" s="16"/>
+      <c r="G434" s="16"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="16"/>
+      <c r="B435" s="16"/>
+      <c r="C435" s="16"/>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="16"/>
+      <c r="G435" s="16"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="16"/>
+      <c r="B436" s="16"/>
+      <c r="C436" s="16"/>
+      <c r="D436" s="16"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="16"/>
+      <c r="G436" s="16"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="16"/>
+      <c r="B437" s="16"/>
+      <c r="C437" s="16"/>
+      <c r="D437" s="16"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
+      <c r="G437" s="16"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="16"/>
+      <c r="B438" s="16"/>
+      <c r="C438" s="16"/>
+      <c r="D438" s="16"/>
+      <c r="E438" s="16"/>
+      <c r="F438" s="16"/>
+      <c r="G438" s="16"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="16"/>
+      <c r="B439" s="16"/>
+      <c r="C439" s="16"/>
+      <c r="D439" s="16"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="16"/>
+      <c r="G439" s="16"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="16"/>
+      <c r="B440" s="16"/>
+      <c r="C440" s="16"/>
+      <c r="D440" s="16"/>
+      <c r="E440" s="16"/>
+      <c r="F440" s="16"/>
+      <c r="G440" s="16"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="16"/>
+      <c r="B441" s="16"/>
+      <c r="C441" s="16"/>
+      <c r="D441" s="16"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
+      <c r="G441" s="16"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="16"/>
+      <c r="B442" s="16"/>
+      <c r="C442" s="16"/>
+      <c r="D442" s="16"/>
+      <c r="E442" s="16"/>
+      <c r="F442" s="16"/>
+      <c r="G442" s="16"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="16"/>
+      <c r="B443" s="16"/>
+      <c r="C443" s="16"/>
+      <c r="D443" s="16"/>
+      <c r="E443" s="16"/>
+      <c r="F443" s="16"/>
+      <c r="G443" s="16"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="16"/>
+      <c r="B444" s="16"/>
+      <c r="C444" s="16"/>
+      <c r="D444" s="16"/>
+      <c r="E444" s="16"/>
+      <c r="F444" s="16"/>
+      <c r="G444" s="16"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="16"/>
+      <c r="B445" s="16"/>
+      <c r="C445" s="16"/>
+      <c r="D445" s="16"/>
+      <c r="E445" s="16"/>
+      <c r="F445" s="16"/>
+      <c r="G445" s="16"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="16"/>
+      <c r="B446" s="16"/>
+      <c r="C446" s="16"/>
+      <c r="D446" s="16"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="16"/>
+      <c r="G446" s="16"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="16"/>
+      <c r="B447" s="16"/>
+      <c r="C447" s="16"/>
+      <c r="D447" s="16"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="16"/>
+      <c r="G447" s="16"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="16"/>
+      <c r="B448" s="16"/>
+      <c r="C448" s="16"/>
+      <c r="D448" s="16"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
+      <c r="G448" s="16"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="16"/>
+      <c r="B449" s="16"/>
+      <c r="C449" s="16"/>
+      <c r="D449" s="16"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
+      <c r="G449" s="16"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="16"/>
+      <c r="B450" s="16"/>
+      <c r="C450" s="16"/>
+      <c r="D450" s="16"/>
+      <c r="E450" s="16"/>
+      <c r="F450" s="16"/>
+      <c r="G450" s="16"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="16"/>
+      <c r="B451" s="16"/>
+      <c r="C451" s="16"/>
+      <c r="D451" s="16"/>
+      <c r="E451" s="16"/>
+      <c r="F451" s="16"/>
+      <c r="G451" s="16"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="16"/>
+      <c r="B452" s="16"/>
+      <c r="C452" s="16"/>
+      <c r="D452" s="16"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="16"/>
+      <c r="G452" s="16"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="16"/>
+      <c r="B453" s="16"/>
+      <c r="C453" s="16"/>
+      <c r="D453" s="16"/>
+      <c r="E453" s="16"/>
+      <c r="F453" s="16"/>
+      <c r="G453" s="16"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="16"/>
+      <c r="B454" s="16"/>
+      <c r="C454" s="16"/>
+      <c r="D454" s="16"/>
+      <c r="E454" s="16"/>
+      <c r="F454" s="16"/>
+      <c r="G454" s="16"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="16"/>
+      <c r="B455" s="16"/>
+      <c r="C455" s="16"/>
+      <c r="D455" s="16"/>
+      <c r="E455" s="16"/>
+      <c r="F455" s="16"/>
+      <c r="G455" s="16"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="16"/>
+      <c r="B456" s="16"/>
+      <c r="C456" s="16"/>
+      <c r="D456" s="16"/>
+      <c r="E456" s="16"/>
+      <c r="F456" s="16"/>
+      <c r="G456" s="16"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="16"/>
+      <c r="B457" s="16"/>
+      <c r="C457" s="16"/>
+      <c r="D457" s="16"/>
+      <c r="E457" s="16"/>
+      <c r="F457" s="16"/>
+      <c r="G457" s="16"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="16"/>
+      <c r="B458" s="16"/>
+      <c r="C458" s="16"/>
+      <c r="D458" s="16"/>
+      <c r="E458" s="16"/>
+      <c r="F458" s="16"/>
+      <c r="G458" s="16"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="16"/>
+      <c r="B459" s="16"/>
+      <c r="C459" s="16"/>
+      <c r="D459" s="16"/>
+      <c r="E459" s="16"/>
+      <c r="F459" s="16"/>
+      <c r="G459" s="16"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="16"/>
+      <c r="B460" s="16"/>
+      <c r="C460" s="16"/>
+      <c r="D460" s="16"/>
+      <c r="E460" s="16"/>
+      <c r="F460" s="16"/>
+      <c r="G460" s="16"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="16"/>
+      <c r="B461" s="16"/>
+      <c r="C461" s="16"/>
+      <c r="D461" s="16"/>
+      <c r="E461" s="16"/>
+      <c r="F461" s="16"/>
+      <c r="G461" s="16"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="16"/>
+      <c r="B462" s="16"/>
+      <c r="C462" s="16"/>
+      <c r="D462" s="16"/>
+      <c r="E462" s="16"/>
+      <c r="F462" s="16"/>
+      <c r="G462" s="16"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="16"/>
+      <c r="B463" s="16"/>
+      <c r="C463" s="16"/>
+      <c r="D463" s="16"/>
+      <c r="E463" s="16"/>
+      <c r="F463" s="16"/>
+      <c r="G463" s="16"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="16"/>
+      <c r="B464" s="16"/>
+      <c r="C464" s="16"/>
+      <c r="D464" s="16"/>
+      <c r="E464" s="16"/>
+      <c r="F464" s="16"/>
+      <c r="G464" s="16"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="16"/>
+      <c r="B465" s="16"/>
+      <c r="C465" s="16"/>
+      <c r="D465" s="16"/>
+      <c r="E465" s="16"/>
+      <c r="F465" s="16"/>
+      <c r="G465" s="16"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="16"/>
+      <c r="B466" s="16"/>
+      <c r="C466" s="16"/>
+      <c r="D466" s="16"/>
+      <c r="E466" s="16"/>
+      <c r="F466" s="16"/>
+      <c r="G466" s="16"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="16"/>
+      <c r="B467" s="16"/>
+      <c r="C467" s="16"/>
+      <c r="D467" s="16"/>
+      <c r="E467" s="16"/>
+      <c r="F467" s="16"/>
+      <c r="G467" s="16"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="16"/>
+      <c r="B468" s="16"/>
+      <c r="C468" s="16"/>
+      <c r="D468" s="16"/>
+      <c r="E468" s="16"/>
+      <c r="F468" s="16"/>
+      <c r="G468" s="16"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="16"/>
+      <c r="B469" s="16"/>
+      <c r="C469" s="16"/>
+      <c r="D469" s="16"/>
+      <c r="E469" s="16"/>
+      <c r="F469" s="16"/>
+      <c r="G469" s="16"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="16"/>
+      <c r="B470" s="16"/>
+      <c r="C470" s="16"/>
+      <c r="D470" s="16"/>
+      <c r="E470" s="16"/>
+      <c r="F470" s="16"/>
+      <c r="G470" s="16"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="16"/>
+      <c r="B471" s="16"/>
+      <c r="C471" s="16"/>
+      <c r="D471" s="16"/>
+      <c r="E471" s="16"/>
+      <c r="F471" s="16"/>
+      <c r="G471" s="16"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="16"/>
+      <c r="B472" s="16"/>
+      <c r="C472" s="16"/>
+      <c r="D472" s="16"/>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
+      <c r="G472" s="16"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="16"/>
+      <c r="B473" s="16"/>
+      <c r="C473" s="16"/>
+      <c r="D473" s="16"/>
+      <c r="E473" s="16"/>
+      <c r="F473" s="16"/>
+      <c r="G473" s="16"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="16"/>
+      <c r="B474" s="16"/>
+      <c r="C474" s="16"/>
+      <c r="D474" s="16"/>
+      <c r="E474" s="16"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="16"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="16"/>
+      <c r="B475" s="16"/>
+      <c r="C475" s="16"/>
+      <c r="D475" s="16"/>
+      <c r="E475" s="16"/>
+      <c r="F475" s="16"/>
+      <c r="G475" s="16"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="16"/>
+      <c r="B476" s="16"/>
+      <c r="C476" s="16"/>
+      <c r="D476" s="16"/>
+      <c r="E476" s="16"/>
+      <c r="F476" s="16"/>
+      <c r="G476" s="16"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="16"/>
+      <c r="B477" s="16"/>
+      <c r="C477" s="16"/>
+      <c r="D477" s="16"/>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
+      <c r="G477" s="16"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="16"/>
+      <c r="B478" s="16"/>
+      <c r="C478" s="16"/>
+      <c r="D478" s="16"/>
+      <c r="E478" s="16"/>
+      <c r="F478" s="16"/>
+      <c r="G478" s="16"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="16"/>
+      <c r="B479" s="16"/>
+      <c r="C479" s="16"/>
+      <c r="D479" s="16"/>
+      <c r="E479" s="16"/>
+      <c r="F479" s="16"/>
+      <c r="G479" s="16"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="16"/>
+      <c r="B480" s="16"/>
+      <c r="C480" s="16"/>
+      <c r="D480" s="16"/>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
+      <c r="G480" s="16"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="16"/>
+      <c r="B481" s="16"/>
+      <c r="C481" s="16"/>
+      <c r="D481" s="16"/>
+      <c r="E481" s="16"/>
+      <c r="F481" s="16"/>
+      <c r="G481" s="16"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="16"/>
+      <c r="B482" s="16"/>
+      <c r="C482" s="16"/>
+      <c r="D482" s="16"/>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
+      <c r="G482" s="16"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="16"/>
+      <c r="B483" s="16"/>
+      <c r="C483" s="16"/>
+      <c r="D483" s="16"/>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
+      <c r="G483" s="16"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="16"/>
+      <c r="B484" s="16"/>
+      <c r="C484" s="16"/>
+      <c r="D484" s="16"/>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
+      <c r="G484" s="16"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="16"/>
+      <c r="B485" s="16"/>
+      <c r="C485" s="16"/>
+      <c r="D485" s="16"/>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
+      <c r="G485" s="16"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="16"/>
+      <c r="B486" s="16"/>
+      <c r="C486" s="16"/>
+      <c r="D486" s="16"/>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
+      <c r="G486" s="16"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="16"/>
+      <c r="B487" s="16"/>
+      <c r="C487" s="16"/>
+      <c r="D487" s="16"/>
+      <c r="E487" s="16"/>
+      <c r="F487" s="16"/>
+      <c r="G487" s="16"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="16"/>
+      <c r="B488" s="16"/>
+      <c r="C488" s="16"/>
+      <c r="D488" s="16"/>
+      <c r="E488" s="16"/>
+      <c r="F488" s="16"/>
+      <c r="G488" s="16"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="16"/>
+      <c r="B489" s="16"/>
+      <c r="C489" s="16"/>
+      <c r="D489" s="16"/>
+      <c r="E489" s="16"/>
+      <c r="F489" s="16"/>
+      <c r="G489" s="16"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="16"/>
+      <c r="B490" s="16"/>
+      <c r="C490" s="16"/>
+      <c r="D490" s="16"/>
+      <c r="E490" s="16"/>
+      <c r="F490" s="16"/>
+      <c r="G490" s="16"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="16"/>
+      <c r="B491" s="16"/>
+      <c r="C491" s="16"/>
+      <c r="D491" s="16"/>
+      <c r="E491" s="16"/>
+      <c r="F491" s="16"/>
+      <c r="G491" s="16"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="16"/>
+      <c r="B492" s="16"/>
+      <c r="C492" s="16"/>
+      <c r="D492" s="16"/>
+      <c r="E492" s="16"/>
+      <c r="F492" s="16"/>
+      <c r="G492" s="16"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="16"/>
+      <c r="B493" s="16"/>
+      <c r="C493" s="16"/>
+      <c r="D493" s="16"/>
+      <c r="E493" s="16"/>
+      <c r="F493" s="16"/>
+      <c r="G493" s="16"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="16"/>
+      <c r="B494" s="16"/>
+      <c r="C494" s="16"/>
+      <c r="D494" s="16"/>
+      <c r="E494" s="16"/>
+      <c r="F494" s="16"/>
+      <c r="G494" s="16"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="16"/>
+      <c r="B495" s="16"/>
+      <c r="C495" s="16"/>
+      <c r="D495" s="16"/>
+      <c r="E495" s="16"/>
+      <c r="F495" s="16"/>
+      <c r="G495" s="16"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="16"/>
+      <c r="B496" s="16"/>
+      <c r="C496" s="16"/>
+      <c r="D496" s="16"/>
+      <c r="E496" s="16"/>
+      <c r="F496" s="16"/>
+      <c r="G496" s="16"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="16"/>
+      <c r="B497" s="16"/>
+      <c r="C497" s="16"/>
+      <c r="D497" s="16"/>
+      <c r="E497" s="16"/>
+      <c r="F497" s="16"/>
+      <c r="G497" s="16"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="16"/>
+      <c r="B498" s="16"/>
+      <c r="C498" s="16"/>
+      <c r="D498" s="16"/>
+      <c r="E498" s="16"/>
+      <c r="F498" s="16"/>
+      <c r="G498" s="16"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="16"/>
+      <c r="B499" s="16"/>
+      <c r="C499" s="16"/>
+      <c r="D499" s="16"/>
+      <c r="E499" s="16"/>
+      <c r="F499" s="16"/>
+      <c r="G499" s="16"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="16"/>
+      <c r="B500" s="16"/>
+      <c r="C500" s="16"/>
+      <c r="D500" s="16"/>
+      <c r="E500" s="16"/>
+      <c r="F500" s="16"/>
+      <c r="G500" s="16"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="16"/>
+      <c r="B501" s="16"/>
+      <c r="C501" s="16"/>
+      <c r="D501" s="16"/>
+      <c r="E501" s="16"/>
+      <c r="F501" s="16"/>
+      <c r="G501" s="16"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="16"/>
+      <c r="B502" s="16"/>
+      <c r="C502" s="16"/>
+      <c r="D502" s="16"/>
+      <c r="E502" s="16"/>
+      <c r="F502" s="16"/>
+      <c r="G502" s="16"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="16"/>
+      <c r="B503" s="16"/>
+      <c r="C503" s="16"/>
+      <c r="D503" s="16"/>
+      <c r="E503" s="16"/>
+      <c r="F503" s="16"/>
+      <c r="G503" s="16"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="16"/>
+      <c r="B504" s="16"/>
+      <c r="C504" s="16"/>
+      <c r="D504" s="16"/>
+      <c r="E504" s="16"/>
+      <c r="F504" s="16"/>
+      <c r="G504" s="16"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="16"/>
+      <c r="B505" s="16"/>
+      <c r="C505" s="16"/>
+      <c r="D505" s="16"/>
+      <c r="E505" s="16"/>
+      <c r="F505" s="16"/>
+      <c r="G505" s="16"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="16"/>
+      <c r="B506" s="16"/>
+      <c r="C506" s="16"/>
+      <c r="D506" s="16"/>
+      <c r="E506" s="16"/>
+      <c r="F506" s="16"/>
+      <c r="G506" s="16"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="16"/>
+      <c r="B507" s="16"/>
+      <c r="C507" s="16"/>
+      <c r="D507" s="16"/>
+      <c r="E507" s="16"/>
+      <c r="F507" s="16"/>
+      <c r="G507" s="16"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="16"/>
+      <c r="B508" s="16"/>
+      <c r="C508" s="16"/>
+      <c r="D508" s="16"/>
+      <c r="E508" s="16"/>
+      <c r="F508" s="16"/>
+      <c r="G508" s="16"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="16"/>
+      <c r="B509" s="16"/>
+      <c r="C509" s="16"/>
+      <c r="D509" s="16"/>
+      <c r="E509" s="16"/>
+      <c r="F509" s="16"/>
+      <c r="G509" s="16"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="16"/>
+      <c r="B510" s="16"/>
+      <c r="C510" s="16"/>
+      <c r="D510" s="16"/>
+      <c r="E510" s="16"/>
+      <c r="F510" s="16"/>
+      <c r="G510" s="16"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="16"/>
+      <c r="B511" s="16"/>
+      <c r="C511" s="16"/>
+      <c r="D511" s="16"/>
+      <c r="E511" s="16"/>
+      <c r="F511" s="16"/>
+      <c r="G511" s="16"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="16"/>
+      <c r="B512" s="16"/>
+      <c r="C512" s="16"/>
+      <c r="D512" s="16"/>
+      <c r="E512" s="16"/>
+      <c r="F512" s="16"/>
+      <c r="G512" s="16"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="16"/>
+      <c r="B513" s="16"/>
+      <c r="C513" s="16"/>
+      <c r="D513" s="16"/>
+      <c r="E513" s="16"/>
+      <c r="F513" s="16"/>
+      <c r="G513" s="16"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="16"/>
+      <c r="B514" s="16"/>
+      <c r="C514" s="16"/>
+      <c r="D514" s="16"/>
+      <c r="E514" s="16"/>
+      <c r="F514" s="16"/>
+      <c r="G514" s="16"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="16"/>
+      <c r="B515" s="16"/>
+      <c r="C515" s="16"/>
+      <c r="D515" s="16"/>
+      <c r="E515" s="16"/>
+      <c r="F515" s="16"/>
+      <c r="G515" s="16"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="16"/>
+      <c r="B516" s="16"/>
+      <c r="C516" s="16"/>
+      <c r="D516" s="16"/>
+      <c r="E516" s="16"/>
+      <c r="F516" s="16"/>
+      <c r="G516" s="16"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="16"/>
+      <c r="B517" s="16"/>
+      <c r="C517" s="16"/>
+      <c r="D517" s="16"/>
+      <c r="E517" s="16"/>
+      <c r="F517" s="16"/>
+      <c r="G517" s="16"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="16"/>
+      <c r="B518" s="16"/>
+      <c r="C518" s="16"/>
+      <c r="D518" s="16"/>
+      <c r="E518" s="16"/>
+      <c r="F518" s="16"/>
+      <c r="G518" s="16"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="16"/>
+      <c r="B519" s="16"/>
+      <c r="C519" s="16"/>
+      <c r="D519" s="16"/>
+      <c r="E519" s="16"/>
+      <c r="F519" s="16"/>
+      <c r="G519" s="16"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="16"/>
+      <c r="B520" s="16"/>
+      <c r="C520" s="16"/>
+      <c r="D520" s="16"/>
+      <c r="E520" s="16"/>
+      <c r="F520" s="16"/>
+      <c r="G520" s="16"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" s="16"/>
+      <c r="B521" s="16"/>
+      <c r="C521" s="16"/>
+      <c r="D521" s="16"/>
+      <c r="E521" s="16"/>
+      <c r="F521" s="16"/>
+      <c r="G521" s="16"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" s="16"/>
+      <c r="B522" s="16"/>
+      <c r="C522" s="16"/>
+      <c r="D522" s="16"/>
+      <c r="E522" s="16"/>
+      <c r="F522" s="16"/>
+      <c r="G522" s="16"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" s="16"/>
+      <c r="B523" s="16"/>
+      <c r="C523" s="16"/>
+      <c r="D523" s="16"/>
+      <c r="E523" s="16"/>
+      <c r="F523" s="16"/>
+      <c r="G523" s="16"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" s="16"/>
+      <c r="B524" s="16"/>
+      <c r="C524" s="16"/>
+      <c r="D524" s="16"/>
+      <c r="E524" s="16"/>
+      <c r="F524" s="16"/>
+      <c r="G524" s="16"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+      <c r="B525" s="16"/>
+      <c r="C525" s="16"/>
+      <c r="D525" s="16"/>
+      <c r="E525" s="16"/>
+      <c r="F525" s="16"/>
+      <c r="G525" s="16"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+      <c r="B526" s="16"/>
+      <c r="C526" s="16"/>
+      <c r="D526" s="16"/>
+      <c r="E526" s="16"/>
+      <c r="F526" s="16"/>
+      <c r="G526" s="16"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" s="16"/>
+      <c r="B527" s="16"/>
+      <c r="C527" s="16"/>
+      <c r="D527" s="16"/>
+      <c r="E527" s="16"/>
+      <c r="F527" s="16"/>
+      <c r="G527" s="16"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="16"/>
+      <c r="B528" s="16"/>
+      <c r="C528" s="16"/>
+      <c r="D528" s="16"/>
+      <c r="E528" s="16"/>
+      <c r="F528" s="16"/>
+      <c r="G528" s="16"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="16"/>
+      <c r="B529" s="16"/>
+      <c r="C529" s="16"/>
+      <c r="D529" s="16"/>
+      <c r="E529" s="16"/>
+      <c r="F529" s="16"/>
+      <c r="G529" s="16"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="16"/>
+      <c r="B530" s="16"/>
+      <c r="C530" s="16"/>
+      <c r="D530" s="16"/>
+      <c r="E530" s="16"/>
+      <c r="F530" s="16"/>
+      <c r="G530" s="16"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="16"/>
+      <c r="B531" s="16"/>
+      <c r="C531" s="16"/>
+      <c r="D531" s="16"/>
+      <c r="E531" s="16"/>
+      <c r="F531" s="16"/>
+      <c r="G531" s="16"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="16"/>
+      <c r="B532" s="16"/>
+      <c r="C532" s="16"/>
+      <c r="D532" s="16"/>
+      <c r="E532" s="16"/>
+      <c r="F532" s="16"/>
+      <c r="G532" s="16"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="16"/>
+      <c r="B533" s="16"/>
+      <c r="C533" s="16"/>
+      <c r="D533" s="16"/>
+      <c r="E533" s="16"/>
+      <c r="F533" s="16"/>
+      <c r="G533" s="16"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="16"/>
+      <c r="B534" s="16"/>
+      <c r="C534" s="16"/>
+      <c r="D534" s="16"/>
+      <c r="E534" s="16"/>
+      <c r="F534" s="16"/>
+      <c r="G534" s="16"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="16"/>
+      <c r="B535" s="16"/>
+      <c r="C535" s="16"/>
+      <c r="D535" s="16"/>
+      <c r="E535" s="16"/>
+      <c r="F535" s="16"/>
+      <c r="G535" s="16"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="16"/>
+      <c r="B536" s="16"/>
+      <c r="C536" s="16"/>
+      <c r="D536" s="16"/>
+      <c r="E536" s="16"/>
+      <c r="F536" s="16"/>
+      <c r="G536" s="16"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="16"/>
+      <c r="B537" s="16"/>
+      <c r="C537" s="16"/>
+      <c r="D537" s="16"/>
+      <c r="E537" s="16"/>
+      <c r="F537" s="16"/>
+      <c r="G537" s="16"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="16"/>
+      <c r="B538" s="16"/>
+      <c r="C538" s="16"/>
+      <c r="D538" s="16"/>
+      <c r="E538" s="16"/>
+      <c r="F538" s="16"/>
+      <c r="G538" s="16"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="16"/>
+      <c r="B539" s="16"/>
+      <c r="C539" s="16"/>
+      <c r="D539" s="16"/>
+      <c r="E539" s="16"/>
+      <c r="F539" s="16"/>
+      <c r="G539" s="16"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="16"/>
+      <c r="B540" s="16"/>
+      <c r="C540" s="16"/>
+      <c r="D540" s="16"/>
+      <c r="E540" s="16"/>
+      <c r="F540" s="16"/>
+      <c r="G540" s="16"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="16"/>
+      <c r="B541" s="16"/>
+      <c r="C541" s="16"/>
+      <c r="D541" s="16"/>
+      <c r="E541" s="16"/>
+      <c r="F541" s="16"/>
+      <c r="G541" s="16"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="16"/>
+      <c r="B542" s="16"/>
+      <c r="C542" s="16"/>
+      <c r="D542" s="16"/>
+      <c r="E542" s="16"/>
+      <c r="F542" s="16"/>
+      <c r="G542" s="16"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="16"/>
+      <c r="B543" s="16"/>
+      <c r="C543" s="16"/>
+      <c r="D543" s="16"/>
+      <c r="E543" s="16"/>
+      <c r="F543" s="16"/>
+      <c r="G543" s="16"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="16"/>
+      <c r="B544" s="16"/>
+      <c r="C544" s="16"/>
+      <c r="D544" s="16"/>
+      <c r="E544" s="16"/>
+      <c r="F544" s="16"/>
+      <c r="G544" s="16"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="16"/>
+      <c r="B545" s="16"/>
+      <c r="C545" s="16"/>
+      <c r="D545" s="16"/>
+      <c r="E545" s="16"/>
+      <c r="F545" s="16"/>
+      <c r="G545" s="16"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="16"/>
+      <c r="B546" s="16"/>
+      <c r="C546" s="16"/>
+      <c r="D546" s="16"/>
+      <c r="E546" s="16"/>
+      <c r="F546" s="16"/>
+      <c r="G546" s="16"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="16"/>
+      <c r="B547" s="16"/>
+      <c r="C547" s="16"/>
+      <c r="D547" s="16"/>
+      <c r="E547" s="16"/>
+      <c r="F547" s="16"/>
+      <c r="G547" s="16"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" s="16"/>
+      <c r="B548" s="16"/>
+      <c r="C548" s="16"/>
+      <c r="D548" s="16"/>
+      <c r="E548" s="16"/>
+      <c r="F548" s="16"/>
+      <c r="G548" s="16"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="16"/>
+      <c r="B549" s="16"/>
+      <c r="C549" s="16"/>
+      <c r="D549" s="16"/>
+      <c r="E549" s="16"/>
+      <c r="F549" s="16"/>
+      <c r="G549" s="16"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="16"/>
+      <c r="B550" s="16"/>
+      <c r="C550" s="16"/>
+      <c r="D550" s="16"/>
+      <c r="E550" s="16"/>
+      <c r="F550" s="16"/>
+      <c r="G550" s="16"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="16"/>
+      <c r="B551" s="16"/>
+      <c r="C551" s="16"/>
+      <c r="D551" s="16"/>
+      <c r="E551" s="16"/>
+      <c r="F551" s="16"/>
+      <c r="G551" s="16"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" s="16"/>
+      <c r="B552" s="16"/>
+      <c r="C552" s="16"/>
+      <c r="D552" s="16"/>
+      <c r="E552" s="16"/>
+      <c r="F552" s="16"/>
+      <c r="G552" s="16"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" s="16"/>
+      <c r="B553" s="16"/>
+      <c r="C553" s="16"/>
+      <c r="D553" s="16"/>
+      <c r="E553" s="16"/>
+      <c r="F553" s="16"/>
+      <c r="G553" s="16"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="16"/>
+      <c r="B554" s="16"/>
+      <c r="C554" s="16"/>
+      <c r="D554" s="16"/>
+      <c r="E554" s="16"/>
+      <c r="F554" s="16"/>
+      <c r="G554" s="16"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="16"/>
+      <c r="B555" s="16"/>
+      <c r="C555" s="16"/>
+      <c r="D555" s="16"/>
+      <c r="E555" s="16"/>
+      <c r="F555" s="16"/>
+      <c r="G555" s="16"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="16"/>
+      <c r="B556" s="16"/>
+      <c r="C556" s="16"/>
+      <c r="D556" s="16"/>
+      <c r="E556" s="16"/>
+      <c r="F556" s="16"/>
+      <c r="G556" s="16"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="16"/>
+      <c r="B557" s="16"/>
+      <c r="C557" s="16"/>
+      <c r="D557" s="16"/>
+      <c r="E557" s="16"/>
+      <c r="F557" s="16"/>
+      <c r="G557" s="16"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="16"/>
+      <c r="B558" s="16"/>
+      <c r="C558" s="16"/>
+      <c r="D558" s="16"/>
+      <c r="E558" s="16"/>
+      <c r="F558" s="16"/>
+      <c r="G558" s="16"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="16"/>
+      <c r="B559" s="16"/>
+      <c r="C559" s="16"/>
+      <c r="D559" s="16"/>
+      <c r="E559" s="16"/>
+      <c r="F559" s="16"/>
+      <c r="G559" s="16"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="16"/>
+      <c r="B560" s="16"/>
+      <c r="C560" s="16"/>
+      <c r="D560" s="16"/>
+      <c r="E560" s="16"/>
+      <c r="F560" s="16"/>
+      <c r="G560" s="16"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="16"/>
+      <c r="B561" s="16"/>
+      <c r="C561" s="16"/>
+      <c r="D561" s="16"/>
+      <c r="E561" s="16"/>
+      <c r="F561" s="16"/>
+      <c r="G561" s="16"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="16"/>
+      <c r="B562" s="16"/>
+      <c r="C562" s="16"/>
+      <c r="D562" s="16"/>
+      <c r="E562" s="16"/>
+      <c r="F562" s="16"/>
+      <c r="G562" s="16"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="16"/>
+      <c r="B563" s="16"/>
+      <c r="C563" s="16"/>
+      <c r="D563" s="16"/>
+      <c r="E563" s="16"/>
+      <c r="F563" s="16"/>
+      <c r="G563" s="16"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="16"/>
+      <c r="B564" s="16"/>
+      <c r="C564" s="16"/>
+      <c r="D564" s="16"/>
+      <c r="E564" s="16"/>
+      <c r="F564" s="16"/>
+      <c r="G564" s="16"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="16"/>
+      <c r="B565" s="16"/>
+      <c r="C565" s="16"/>
+      <c r="D565" s="16"/>
+      <c r="E565" s="16"/>
+      <c r="F565" s="16"/>
+      <c r="G565" s="16"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="16"/>
+      <c r="B566" s="16"/>
+      <c r="C566" s="16"/>
+      <c r="D566" s="16"/>
+      <c r="E566" s="16"/>
+      <c r="F566" s="16"/>
+      <c r="G566" s="16"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="16"/>
+      <c r="B567" s="16"/>
+      <c r="C567" s="16"/>
+      <c r="D567" s="16"/>
+      <c r="E567" s="16"/>
+      <c r="F567" s="16"/>
+      <c r="G567" s="16"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="16"/>
+      <c r="B568" s="16"/>
+      <c r="C568" s="16"/>
+      <c r="D568" s="16"/>
+      <c r="E568" s="16"/>
+      <c r="F568" s="16"/>
+      <c r="G568" s="16"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="16"/>
+      <c r="B569" s="16"/>
+      <c r="C569" s="16"/>
+      <c r="D569" s="16"/>
+      <c r="E569" s="16"/>
+      <c r="F569" s="16"/>
+      <c r="G569" s="16"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="16"/>
+      <c r="B570" s="16"/>
+      <c r="C570" s="16"/>
+      <c r="D570" s="16"/>
+      <c r="E570" s="16"/>
+      <c r="F570" s="16"/>
+      <c r="G570" s="16"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="16"/>
+      <c r="B571" s="16"/>
+      <c r="C571" s="16"/>
+      <c r="D571" s="16"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="16"/>
+      <c r="G571" s="16"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="16"/>
+      <c r="B572" s="16"/>
+      <c r="C572" s="16"/>
+      <c r="D572" s="16"/>
+      <c r="E572" s="16"/>
+      <c r="F572" s="16"/>
+      <c r="G572" s="16"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="16"/>
+      <c r="B573" s="16"/>
+      <c r="C573" s="16"/>
+      <c r="D573" s="16"/>
+      <c r="E573" s="16"/>
+      <c r="F573" s="16"/>
+      <c r="G573" s="16"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="16"/>
+      <c r="B574" s="16"/>
+      <c r="C574" s="16"/>
+      <c r="D574" s="16"/>
+      <c r="E574" s="16"/>
+      <c r="F574" s="16"/>
+      <c r="G574" s="16"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="16"/>
+      <c r="B575" s="16"/>
+      <c r="C575" s="16"/>
+      <c r="D575" s="16"/>
+      <c r="E575" s="16"/>
+      <c r="F575" s="16"/>
+      <c r="G575" s="16"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="16"/>
+      <c r="B576" s="16"/>
+      <c r="C576" s="16"/>
+      <c r="D576" s="16"/>
+      <c r="E576" s="16"/>
+      <c r="F576" s="16"/>
+      <c r="G576" s="16"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="16"/>
+      <c r="B577" s="16"/>
+      <c r="C577" s="16"/>
+      <c r="D577" s="16"/>
+      <c r="E577" s="16"/>
+      <c r="F577" s="16"/>
+      <c r="G577" s="16"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="16"/>
+      <c r="B578" s="16"/>
+      <c r="C578" s="16"/>
+      <c r="D578" s="16"/>
+      <c r="E578" s="16"/>
+      <c r="F578" s="16"/>
+      <c r="G578" s="16"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="16"/>
+      <c r="B579" s="16"/>
+      <c r="C579" s="16"/>
+      <c r="D579" s="16"/>
+      <c r="E579" s="16"/>
+      <c r="F579" s="16"/>
+      <c r="G579" s="16"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="16"/>
+      <c r="B580" s="16"/>
+      <c r="C580" s="16"/>
+      <c r="D580" s="16"/>
+      <c r="E580" s="16"/>
+      <c r="F580" s="16"/>
+      <c r="G580" s="16"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="16"/>
+      <c r="B581" s="16"/>
+      <c r="C581" s="16"/>
+      <c r="D581" s="16"/>
+      <c r="E581" s="16"/>
+      <c r="F581" s="16"/>
+      <c r="G581" s="16"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="16"/>
+      <c r="B582" s="16"/>
+      <c r="C582" s="16"/>
+      <c r="D582" s="16"/>
+      <c r="E582" s="16"/>
+      <c r="F582" s="16"/>
+      <c r="G582" s="16"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="16"/>
+      <c r="B583" s="16"/>
+      <c r="C583" s="16"/>
+      <c r="D583" s="16"/>
+      <c r="E583" s="16"/>
+      <c r="F583" s="16"/>
+      <c r="G583" s="16"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="16"/>
+      <c r="B584" s="16"/>
+      <c r="C584" s="16"/>
+      <c r="D584" s="16"/>
+      <c r="E584" s="16"/>
+      <c r="F584" s="16"/>
+      <c r="G584" s="16"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="16"/>
+      <c r="B585" s="16"/>
+      <c r="C585" s="16"/>
+      <c r="D585" s="16"/>
+      <c r="E585" s="16"/>
+      <c r="F585" s="16"/>
+      <c r="G585" s="16"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="16"/>
+      <c r="B586" s="16"/>
+      <c r="C586" s="16"/>
+      <c r="D586" s="16"/>
+      <c r="E586" s="16"/>
+      <c r="F586" s="16"/>
+      <c r="G586" s="16"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="16"/>
+      <c r="B587" s="16"/>
+      <c r="C587" s="16"/>
+      <c r="D587" s="16"/>
+      <c r="E587" s="16"/>
+      <c r="F587" s="16"/>
+      <c r="G587" s="16"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="16"/>
+      <c r="B588" s="16"/>
+      <c r="C588" s="16"/>
+      <c r="D588" s="16"/>
+      <c r="E588" s="16"/>
+      <c r="F588" s="16"/>
+      <c r="G588" s="16"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="16"/>
+      <c r="B589" s="16"/>
+      <c r="C589" s="16"/>
+      <c r="D589" s="16"/>
+      <c r="E589" s="16"/>
+      <c r="F589" s="16"/>
+      <c r="G589" s="16"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="16"/>
+      <c r="B590" s="16"/>
+      <c r="C590" s="16"/>
+      <c r="D590" s="16"/>
+      <c r="E590" s="16"/>
+      <c r="F590" s="16"/>
+      <c r="G590" s="16"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="16"/>
+      <c r="B591" s="16"/>
+      <c r="C591" s="16"/>
+      <c r="D591" s="16"/>
+      <c r="E591" s="16"/>
+      <c r="F591" s="16"/>
+      <c r="G591" s="16"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="16"/>
+      <c r="B592" s="16"/>
+      <c r="C592" s="16"/>
+      <c r="D592" s="16"/>
+      <c r="E592" s="16"/>
+      <c r="F592" s="16"/>
+      <c r="G592" s="16"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" s="16"/>
+      <c r="B593" s="16"/>
+      <c r="C593" s="16"/>
+      <c r="D593" s="16"/>
+      <c r="E593" s="16"/>
+      <c r="F593" s="16"/>
+      <c r="G593" s="16"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" s="16"/>
+      <c r="B594" s="16"/>
+      <c r="C594" s="16"/>
+      <c r="D594" s="16"/>
+      <c r="E594" s="16"/>
+      <c r="F594" s="16"/>
+      <c r="G594" s="16"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="16"/>
+      <c r="B595" s="16"/>
+      <c r="C595" s="16"/>
+      <c r="D595" s="16"/>
+      <c r="E595" s="16"/>
+      <c r="F595" s="16"/>
+      <c r="G595" s="16"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" s="16"/>
+      <c r="B596" s="16"/>
+      <c r="C596" s="16"/>
+      <c r="D596" s="16"/>
+      <c r="E596" s="16"/>
+      <c r="F596" s="16"/>
+      <c r="G596" s="16"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="16"/>
+      <c r="B597" s="16"/>
+      <c r="C597" s="16"/>
+      <c r="D597" s="16"/>
+      <c r="E597" s="16"/>
+      <c r="F597" s="16"/>
+      <c r="G597" s="16"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="16"/>
+      <c r="B598" s="16"/>
+      <c r="C598" s="16"/>
+      <c r="D598" s="16"/>
+      <c r="E598" s="16"/>
+      <c r="F598" s="16"/>
+      <c r="G598" s="16"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="16"/>
+      <c r="B599" s="16"/>
+      <c r="C599" s="16"/>
+      <c r="D599" s="16"/>
+      <c r="E599" s="16"/>
+      <c r="F599" s="16"/>
+      <c r="G599" s="16"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" s="16"/>
+      <c r="B600" s="16"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="16"/>
+      <c r="E600" s="16"/>
+      <c r="F600" s="16"/>
+      <c r="G600" s="16"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" s="16"/>
+      <c r="B601" s="16"/>
+      <c r="C601" s="16"/>
+      <c r="D601" s="16"/>
+      <c r="E601" s="16"/>
+      <c r="F601" s="16"/>
+      <c r="G601" s="16"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="16"/>
+      <c r="B602" s="16"/>
+      <c r="C602" s="16"/>
+      <c r="D602" s="16"/>
+      <c r="E602" s="16"/>
+      <c r="F602" s="16"/>
+      <c r="G602" s="16"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="16"/>
+      <c r="B603" s="16"/>
+      <c r="C603" s="16"/>
+      <c r="D603" s="16"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="16"/>
+      <c r="G603" s="16"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="16"/>
+      <c r="B604" s="16"/>
+      <c r="C604" s="16"/>
+      <c r="D604" s="16"/>
+      <c r="E604" s="16"/>
+      <c r="F604" s="16"/>
+      <c r="G604" s="16"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="16"/>
+      <c r="B605" s="16"/>
+      <c r="C605" s="16"/>
+      <c r="D605" s="16"/>
+      <c r="E605" s="16"/>
+      <c r="F605" s="16"/>
+      <c r="G605" s="16"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="16"/>
+      <c r="B606" s="16"/>
+      <c r="C606" s="16"/>
+      <c r="D606" s="16"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="16"/>
+      <c r="G606" s="16"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="16"/>
+      <c r="B607" s="16"/>
+      <c r="C607" s="16"/>
+      <c r="D607" s="16"/>
+      <c r="E607" s="16"/>
+      <c r="F607" s="16"/>
+      <c r="G607" s="16"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="16"/>
+      <c r="B608" s="16"/>
+      <c r="C608" s="16"/>
+      <c r="D608" s="16"/>
+      <c r="E608" s="16"/>
+      <c r="F608" s="16"/>
+      <c r="G608" s="16"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="16"/>
+      <c r="B609" s="16"/>
+      <c r="C609" s="16"/>
+      <c r="D609" s="16"/>
+      <c r="E609" s="16"/>
+      <c r="F609" s="16"/>
+      <c r="G609" s="16"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="16"/>
+      <c r="B610" s="16"/>
+      <c r="C610" s="16"/>
+      <c r="D610" s="16"/>
+      <c r="E610" s="16"/>
+      <c r="F610" s="16"/>
+      <c r="G610" s="16"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" s="16"/>
+      <c r="B611" s="16"/>
+      <c r="C611" s="16"/>
+      <c r="D611" s="16"/>
+      <c r="E611" s="16"/>
+      <c r="F611" s="16"/>
+      <c r="G611" s="16"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" s="16"/>
+      <c r="B612" s="16"/>
+      <c r="C612" s="16"/>
+      <c r="D612" s="16"/>
+      <c r="E612" s="16"/>
+      <c r="F612" s="16"/>
+      <c r="G612" s="16"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" s="16"/>
+      <c r="B613" s="16"/>
+      <c r="C613" s="16"/>
+      <c r="D613" s="16"/>
+      <c r="E613" s="16"/>
+      <c r="F613" s="16"/>
+      <c r="G613" s="16"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" s="16"/>
+      <c r="B614" s="16"/>
+      <c r="C614" s="16"/>
+      <c r="D614" s="16"/>
+      <c r="E614" s="16"/>
+      <c r="F614" s="16"/>
+      <c r="G614" s="16"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="16"/>
+      <c r="B615" s="16"/>
+      <c r="C615" s="16"/>
+      <c r="D615" s="16"/>
+      <c r="E615" s="16"/>
+      <c r="F615" s="16"/>
+      <c r="G615" s="16"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="16"/>
+      <c r="B616" s="16"/>
+      <c r="C616" s="16"/>
+      <c r="D616" s="16"/>
+      <c r="E616" s="16"/>
+      <c r="F616" s="16"/>
+      <c r="G616" s="16"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" s="16"/>
+      <c r="B617" s="16"/>
+      <c r="C617" s="16"/>
+      <c r="D617" s="16"/>
+      <c r="E617" s="16"/>
+      <c r="F617" s="16"/>
+      <c r="G617" s="16"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" s="16"/>
+      <c r="B618" s="16"/>
+      <c r="C618" s="16"/>
+      <c r="D618" s="16"/>
+      <c r="E618" s="16"/>
+      <c r="F618" s="16"/>
+      <c r="G618" s="16"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="16"/>
+      <c r="B619" s="16"/>
+      <c r="C619" s="16"/>
+      <c r="D619" s="16"/>
+      <c r="E619" s="16"/>
+      <c r="F619" s="16"/>
+      <c r="G619" s="16"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="16"/>
+      <c r="B620" s="16"/>
+      <c r="C620" s="16"/>
+      <c r="D620" s="16"/>
+      <c r="E620" s="16"/>
+      <c r="F620" s="16"/>
+      <c r="G620" s="16"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="16"/>
+      <c r="B621" s="16"/>
+      <c r="C621" s="16"/>
+      <c r="D621" s="16"/>
+      <c r="E621" s="16"/>
+      <c r="F621" s="16"/>
+      <c r="G621" s="16"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="16"/>
+      <c r="B622" s="16"/>
+      <c r="C622" s="16"/>
+      <c r="D622" s="16"/>
+      <c r="E622" s="16"/>
+      <c r="F622" s="16"/>
+      <c r="G622" s="16"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="16"/>
+      <c r="B623" s="16"/>
+      <c r="C623" s="16"/>
+      <c r="D623" s="16"/>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16"/>
+      <c r="G623" s="16"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="16"/>
+      <c r="B624" s="16"/>
+      <c r="C624" s="16"/>
+      <c r="D624" s="16"/>
+      <c r="E624" s="16"/>
+      <c r="F624" s="16"/>
+      <c r="G624" s="16"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="16"/>
+      <c r="B625" s="16"/>
+      <c r="C625" s="16"/>
+      <c r="D625" s="16"/>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16"/>
+      <c r="G625" s="16"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="16"/>
+      <c r="B626" s="16"/>
+      <c r="C626" s="16"/>
+      <c r="D626" s="16"/>
+      <c r="E626" s="16"/>
+      <c r="F626" s="16"/>
+      <c r="G626" s="16"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="16"/>
+      <c r="B627" s="16"/>
+      <c r="C627" s="16"/>
+      <c r="D627" s="16"/>
+      <c r="E627" s="16"/>
+      <c r="F627" s="16"/>
+      <c r="G627" s="16"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="16"/>
+      <c r="B628" s="16"/>
+      <c r="C628" s="16"/>
+      <c r="D628" s="16"/>
+      <c r="E628" s="16"/>
+      <c r="F628" s="16"/>
+      <c r="G628" s="16"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="16"/>
+      <c r="B629" s="16"/>
+      <c r="C629" s="16"/>
+      <c r="D629" s="16"/>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16"/>
+      <c r="G629" s="16"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="16"/>
+      <c r="B630" s="16"/>
+      <c r="C630" s="16"/>
+      <c r="D630" s="16"/>
+      <c r="E630" s="16"/>
+      <c r="F630" s="16"/>
+      <c r="G630" s="16"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="16"/>
+      <c r="B631" s="16"/>
+      <c r="C631" s="16"/>
+      <c r="D631" s="16"/>
+      <c r="E631" s="16"/>
+      <c r="F631" s="16"/>
+      <c r="G631" s="16"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="16"/>
+      <c r="B632" s="16"/>
+      <c r="C632" s="16"/>
+      <c r="D632" s="16"/>
+      <c r="E632" s="16"/>
+      <c r="F632" s="16"/>
+      <c r="G632" s="16"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="16"/>
+      <c r="B633" s="16"/>
+      <c r="C633" s="16"/>
+      <c r="D633" s="16"/>
+      <c r="E633" s="16"/>
+      <c r="F633" s="16"/>
+      <c r="G633" s="16"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="16"/>
+      <c r="B634" s="16"/>
+      <c r="C634" s="16"/>
+      <c r="D634" s="16"/>
+      <c r="E634" s="16"/>
+      <c r="F634" s="16"/>
+      <c r="G634" s="16"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="16"/>
+      <c r="B635" s="16"/>
+      <c r="C635" s="16"/>
+      <c r="D635" s="16"/>
+      <c r="E635" s="16"/>
+      <c r="F635" s="16"/>
+      <c r="G635" s="16"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="16"/>
+      <c r="B636" s="16"/>
+      <c r="C636" s="16"/>
+      <c r="D636" s="16"/>
+      <c r="E636" s="16"/>
+      <c r="F636" s="16"/>
+      <c r="G636" s="16"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="16"/>
+      <c r="B637" s="16"/>
+      <c r="C637" s="16"/>
+      <c r="D637" s="16"/>
+      <c r="E637" s="16"/>
+      <c r="F637" s="16"/>
+      <c r="G637" s="16"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="16"/>
+      <c r="B638" s="16"/>
+      <c r="C638" s="16"/>
+      <c r="D638" s="16"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="16"/>
+      <c r="G638" s="16"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="16"/>
+      <c r="B639" s="16"/>
+      <c r="C639" s="16"/>
+      <c r="D639" s="16"/>
+      <c r="E639" s="16"/>
+      <c r="F639" s="16"/>
+      <c r="G639" s="16"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="16"/>
+      <c r="B640" s="16"/>
+      <c r="C640" s="16"/>
+      <c r="D640" s="16"/>
+      <c r="E640" s="16"/>
+      <c r="F640" s="16"/>
+      <c r="G640" s="16"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="16"/>
+      <c r="B641" s="16"/>
+      <c r="C641" s="16"/>
+      <c r="D641" s="16"/>
+      <c r="E641" s="16"/>
+      <c r="F641" s="16"/>
+      <c r="G641" s="16"/>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="16"/>
+      <c r="B642" s="16"/>
+      <c r="C642" s="16"/>
+      <c r="D642" s="16"/>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16"/>
+      <c r="G642" s="16"/>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="16"/>
+      <c r="B643" s="16"/>
+      <c r="C643" s="16"/>
+      <c r="D643" s="16"/>
+      <c r="E643" s="16"/>
+      <c r="F643" s="16"/>
+      <c r="G643" s="16"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" s="16"/>
+      <c r="B644" s="16"/>
+      <c r="C644" s="16"/>
+      <c r="D644" s="16"/>
+      <c r="E644" s="16"/>
+      <c r="F644" s="16"/>
+      <c r="G644" s="16"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="16"/>
+      <c r="B645" s="16"/>
+      <c r="C645" s="16"/>
+      <c r="D645" s="16"/>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16"/>
+      <c r="G645" s="16"/>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="16"/>
+      <c r="B646" s="16"/>
+      <c r="C646" s="16"/>
+      <c r="D646" s="16"/>
+      <c r="E646" s="16"/>
+      <c r="F646" s="16"/>
+      <c r="G646" s="16"/>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" s="16"/>
+      <c r="B647" s="16"/>
+      <c r="C647" s="16"/>
+      <c r="D647" s="16"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="16"/>
+      <c r="G647" s="16"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" s="16"/>
+      <c r="B648" s="16"/>
+      <c r="C648" s="16"/>
+      <c r="D648" s="16"/>
+      <c r="E648" s="16"/>
+      <c r="F648" s="16"/>
+      <c r="G648" s="16"/>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="16"/>
+      <c r="B649" s="16"/>
+      <c r="C649" s="16"/>
+      <c r="D649" s="16"/>
+      <c r="E649" s="16"/>
+      <c r="F649" s="16"/>
+      <c r="G649" s="16"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="16"/>
+      <c r="B650" s="16"/>
+      <c r="C650" s="16"/>
+      <c r="D650" s="16"/>
+      <c r="E650" s="16"/>
+      <c r="F650" s="16"/>
+      <c r="G650" s="16"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" s="16"/>
+      <c r="B651" s="16"/>
+      <c r="C651" s="16"/>
+      <c r="D651" s="16"/>
+      <c r="E651" s="16"/>
+      <c r="F651" s="16"/>
+      <c r="G651" s="16"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" s="16"/>
+      <c r="B652" s="16"/>
+      <c r="C652" s="16"/>
+      <c r="D652" s="16"/>
+      <c r="E652" s="16"/>
+      <c r="F652" s="16"/>
+      <c r="G652" s="16"/>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" s="16"/>
+      <c r="B653" s="16"/>
+      <c r="C653" s="16"/>
+      <c r="D653" s="16"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="16"/>
+      <c r="G653" s="16"/>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="16"/>
+      <c r="B654" s="16"/>
+      <c r="C654" s="16"/>
+      <c r="D654" s="16"/>
+      <c r="E654" s="16"/>
+      <c r="F654" s="16"/>
+      <c r="G654" s="16"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" s="16"/>
+      <c r="B655" s="16"/>
+      <c r="C655" s="16"/>
+      <c r="D655" s="16"/>
+      <c r="E655" s="16"/>
+      <c r="F655" s="16"/>
+      <c r="G655" s="16"/>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" s="16"/>
+      <c r="B656" s="16"/>
+      <c r="C656" s="16"/>
+      <c r="D656" s="16"/>
+      <c r="E656" s="16"/>
+      <c r="F656" s="16"/>
+      <c r="G656" s="16"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="16"/>
+      <c r="B657" s="16"/>
+      <c r="C657" s="16"/>
+      <c r="D657" s="16"/>
+      <c r="E657" s="16"/>
+      <c r="F657" s="16"/>
+      <c r="G657" s="16"/>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" s="16"/>
+      <c r="B658" s="16"/>
+      <c r="C658" s="16"/>
+      <c r="D658" s="16"/>
+      <c r="E658" s="16"/>
+      <c r="F658" s="16"/>
+      <c r="G658" s="16"/>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" s="16"/>
+      <c r="B659" s="16"/>
+      <c r="C659" s="16"/>
+      <c r="D659" s="16"/>
+      <c r="E659" s="16"/>
+      <c r="F659" s="16"/>
+      <c r="G659" s="16"/>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" s="16"/>
+      <c r="B660" s="16"/>
+      <c r="C660" s="16"/>
+      <c r="D660" s="16"/>
+      <c r="E660" s="16"/>
+      <c r="F660" s="16"/>
+      <c r="G660" s="16"/>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" s="16"/>
+      <c r="B661" s="16"/>
+      <c r="C661" s="16"/>
+      <c r="D661" s="16"/>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16"/>
+      <c r="G661" s="16"/>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="16"/>
+      <c r="B662" s="16"/>
+      <c r="C662" s="16"/>
+      <c r="D662" s="16"/>
+      <c r="E662" s="16"/>
+      <c r="F662" s="16"/>
+      <c r="G662" s="16"/>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="16"/>
+      <c r="B663" s="16"/>
+      <c r="C663" s="16"/>
+      <c r="D663" s="16"/>
+      <c r="E663" s="16"/>
+      <c r="F663" s="16"/>
+      <c r="G663" s="16"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="16"/>
+      <c r="B664" s="16"/>
+      <c r="C664" s="16"/>
+      <c r="D664" s="16"/>
+      <c r="E664" s="16"/>
+      <c r="F664" s="16"/>
+      <c r="G664" s="16"/>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="16"/>
+      <c r="B665" s="16"/>
+      <c r="C665" s="16"/>
+      <c r="D665" s="16"/>
+      <c r="E665" s="16"/>
+      <c r="F665" s="16"/>
+      <c r="G665" s="16"/>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="16"/>
+      <c r="B666" s="16"/>
+      <c r="C666" s="16"/>
+      <c r="D666" s="16"/>
+      <c r="E666" s="16"/>
+      <c r="F666" s="16"/>
+      <c r="G666" s="16"/>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="16"/>
+      <c r="B667" s="16"/>
+      <c r="C667" s="16"/>
+      <c r="D667" s="16"/>
+      <c r="E667" s="16"/>
+      <c r="F667" s="16"/>
+      <c r="G667" s="16"/>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="16"/>
+      <c r="B668" s="16"/>
+      <c r="C668" s="16"/>
+      <c r="D668" s="16"/>
+      <c r="E668" s="16"/>
+      <c r="F668" s="16"/>
+      <c r="G668" s="16"/>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="16"/>
+      <c r="B669" s="16"/>
+      <c r="C669" s="16"/>
+      <c r="D669" s="16"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="16"/>
+      <c r="G669" s="16"/>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="16"/>
+      <c r="B670" s="16"/>
+      <c r="C670" s="16"/>
+      <c r="D670" s="16"/>
+      <c r="E670" s="16"/>
+      <c r="F670" s="16"/>
+      <c r="G670" s="16"/>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="16"/>
+      <c r="B671" s="16"/>
+      <c r="C671" s="16"/>
+      <c r="D671" s="16"/>
+      <c r="E671" s="16"/>
+      <c r="F671" s="16"/>
+      <c r="G671" s="16"/>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="16"/>
+      <c r="B672" s="16"/>
+      <c r="C672" s="16"/>
+      <c r="D672" s="16"/>
+      <c r="E672" s="16"/>
+      <c r="F672" s="16"/>
+      <c r="G672" s="16"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="16"/>
+      <c r="B673" s="16"/>
+      <c r="C673" s="16"/>
+      <c r="D673" s="16"/>
+      <c r="E673" s="16"/>
+      <c r="F673" s="16"/>
+      <c r="G673" s="16"/>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="16"/>
+      <c r="B674" s="16"/>
+      <c r="C674" s="16"/>
+      <c r="D674" s="16"/>
+      <c r="E674" s="16"/>
+      <c r="F674" s="16"/>
+      <c r="G674" s="16"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="16"/>
+      <c r="B675" s="16"/>
+      <c r="C675" s="16"/>
+      <c r="D675" s="16"/>
+      <c r="E675" s="16"/>
+      <c r="F675" s="16"/>
+      <c r="G675" s="16"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="16"/>
+      <c r="B676" s="16"/>
+      <c r="C676" s="16"/>
+      <c r="D676" s="16"/>
+      <c r="E676" s="16"/>
+      <c r="F676" s="16"/>
+      <c r="G676" s="16"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="16"/>
+      <c r="B677" s="16"/>
+      <c r="C677" s="16"/>
+      <c r="D677" s="16"/>
+      <c r="E677" s="16"/>
+      <c r="F677" s="16"/>
+      <c r="G677" s="16"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="16"/>
+      <c r="B678" s="16"/>
+      <c r="C678" s="16"/>
+      <c r="D678" s="16"/>
+      <c r="E678" s="16"/>
+      <c r="F678" s="16"/>
+      <c r="G678" s="16"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="16"/>
+      <c r="B679" s="16"/>
+      <c r="C679" s="16"/>
+      <c r="D679" s="16"/>
+      <c r="E679" s="16"/>
+      <c r="F679" s="16"/>
+      <c r="G679" s="16"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="16"/>
+      <c r="B680" s="16"/>
+      <c r="C680" s="16"/>
+      <c r="D680" s="16"/>
+      <c r="E680" s="16"/>
+      <c r="F680" s="16"/>
+      <c r="G680" s="16"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="16"/>
+      <c r="B681" s="16"/>
+      <c r="C681" s="16"/>
+      <c r="D681" s="16"/>
+      <c r="E681" s="16"/>
+      <c r="F681" s="16"/>
+      <c r="G681" s="16"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="16"/>
+      <c r="B682" s="16"/>
+      <c r="C682" s="16"/>
+      <c r="D682" s="16"/>
+      <c r="E682" s="16"/>
+      <c r="F682" s="16"/>
+      <c r="G682" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1878,39 +7367,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>124</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1918,11 +7407,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>125</v>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1931,10 +7420,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>126</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1942,11 +7431,11 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>127</v>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1954,11 +7443,11 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>128</v>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1966,11 +7455,11 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>129</v>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1978,11 +7467,11 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>130</v>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1990,11 +7479,11 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>131</v>
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2002,11 +7491,11 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>132</v>
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2014,11 +7503,11 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>132</v>
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2026,11 +7515,11 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>133</v>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2038,11 +7527,11 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>134</v>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2050,11 +7539,11 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>135</v>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2062,11 +7551,11 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>136</v>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2074,11 +7563,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>137</v>
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2086,11 +7575,11 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>138</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2098,11 +7587,11 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>118</v>
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2110,11 +7599,11 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>139</v>
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2122,11 +7611,11 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>140</v>
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2134,11 +7623,11 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>141</v>
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2146,11 +7635,11 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>142</v>
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2158,11 +7647,11 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>143</v>
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2170,11 +7659,11 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>144</v>
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2182,11 +7671,11 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>145</v>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2194,11 +7683,11 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>96</v>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2206,11 +7695,11 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>146</v>
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2218,11 +7707,11 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>147</v>
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2230,11 +7719,11 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>148</v>
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2242,11 +7731,11 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>149</v>
+      <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2254,11 +7743,11 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>135</v>
+      <c r="A31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2266,11 +7755,11 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>150</v>
+      <c r="A32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2278,11 +7767,11 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>151</v>
+      <c r="A33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2290,11 +7779,11 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>152</v>
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2302,11 +7791,11 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>74</v>
+      <c r="A35" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2314,11 +7803,11 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>77</v>
+      <c r="A36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2326,11 +7815,11 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>78</v>
+      <c r="A37" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2338,11 +7827,11 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>80</v>
+      <c r="A38" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2350,11 +7839,11 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>82</v>
+      <c r="A39" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2362,11 +7851,11 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>84</v>
+      <c r="A40" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2374,11 +7863,11 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>86</v>
+      <c r="A41" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2386,15 +7875,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2402,37 +7891,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="15" t="s">
-        <v>153</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2440,9 +7929,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
-        <v>154</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2451,8 +7940,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
-        <v>155</v>
+      <c r="B4" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2460,9 +7949,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15" t="s">
-        <v>156</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2470,9 +7959,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>157</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2480,9 +7969,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="15" t="s">
-        <v>128</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2490,9 +7979,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="15" t="s">
-        <v>158</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2500,9 +7989,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15" t="s">
-        <v>114</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2510,9 +7999,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15" t="s">
-        <v>159</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2520,9 +8009,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15" t="s">
-        <v>160</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2530,9 +8019,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
-        <v>161</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2540,9 +8029,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>162</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2550,9 +8039,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
-        <v>163</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2560,9 +8049,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
-        <v>164</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2570,9 +8059,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15" t="s">
-        <v>165</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2580,9 +8069,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15" t="s">
-        <v>166</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2590,9 +8079,9 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15" t="s">
-        <v>167</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2600,9 +8089,9 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15" t="s">
-        <v>168</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2610,9 +8099,9 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15" t="s">
-        <v>169</v>
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2620,9 +8109,9 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15" t="s">
-        <v>170</v>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2630,9 +8119,9 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15" t="s">
-        <v>171</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2640,9 +8129,9 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15" t="s">
-        <v>172</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2650,9 +8139,9 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15" t="s">
-        <v>173</v>
+      <c r="A24" s="7"/>
+      <c r="B24" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2660,9 +8149,9 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15" t="s">
-        <v>174</v>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2670,9 +8159,9 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15" t="s">
-        <v>175</v>
+      <c r="A26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2680,9 +8169,9 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15" t="s">
-        <v>176</v>
+      <c r="A27" s="7"/>
+      <c r="B27" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2690,9 +8179,9 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
-        <v>164</v>
+      <c r="A28" s="7"/>
+      <c r="B28" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2700,9 +8189,9 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15" t="s">
-        <v>177</v>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2710,9 +8199,9 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
-        <v>178</v>
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2720,9 +8209,9 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15" t="s">
-        <v>179</v>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2730,23 +8219,23 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2754,7 +8243,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2762,15 +8251,15 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2778,7 +8267,7 @@
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2786,7 +8275,7 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2794,7 +8283,7 @@
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2802,7 +8291,7 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2810,15 +8299,15 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -2826,38 +8315,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="15" t="s">
-        <v>180</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2865,9 +8354,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
-        <v>180</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2876,8 +8365,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="15" t="s">
-        <v>128</v>
+      <c r="B4" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2885,9 +8374,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15" t="s">
-        <v>181</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2895,9 +8384,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="15" t="s">
-        <v>182</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2905,9 +8394,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="15" t="s">
-        <v>183</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2915,9 +8404,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15" t="s">
-        <v>184</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2925,9 +8414,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16" t="s">
-        <v>185</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2935,9 +8424,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15" t="s">
-        <v>186</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2945,9 +8434,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15" t="s">
-        <v>187</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2955,9 +8444,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
-        <v>188</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2965,9 +8454,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>189</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2975,9 +8464,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
-        <v>190</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2985,9 +8474,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
-        <v>191</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2995,9 +8484,9 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15" t="s">
-        <v>192</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3005,9 +8494,9 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15" t="s">
-        <v>193</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3015,101 +8504,101 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -3117,37 +8606,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="72.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
-        <v>194</v>
+      <c r="A2" s="3"/>
+      <c r="B2" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3155,9 +8644,9 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="18" t="s">
-        <v>128</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3166,8 +8655,8 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
-        <v>195</v>
+      <c r="B4" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3175,9 +8664,9 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="18" t="s">
-        <v>196</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3185,9 +8674,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="18" t="s">
-        <v>197</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3195,9 +8684,9 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="18" t="s">
-        <v>198</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3205,9 +8694,9 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="18" t="s">
-        <v>199</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3215,9 +8704,9 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18" t="s">
-        <v>199</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3225,9 +8714,9 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18" t="s">
-        <v>200</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3235,9 +8724,9 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
-        <v>201</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3245,9 +8734,9 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="18" t="s">
-        <v>202</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3255,9 +8744,9 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18" t="s">
-        <v>203</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3265,9 +8754,9 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18" t="s">
-        <v>204</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3275,9 +8764,9 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18" t="s">
-        <v>205</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3285,11 +8774,11 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>206</v>
+      <c r="B16" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template_Factory.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\venkatakrishna-c\Desktop\CodeCheckin\20-03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5865"/>
   </bookViews>
@@ -13,8 +18,7 @@
     <sheet name="Girls" sheetId="4" r:id="rId4"/>
     <sheet name="Boys" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:F17"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="228">
   <si>
     <t>Category</t>
   </si>
@@ -543,6 +547,171 @@
   </si>
   <si>
     <t>Failed Url &amp; error code</t>
+  </si>
+  <si>
+    <t>https://stores.factory.jcrew.com/?</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/account/details</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/checkout2/shoppingbag.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/womens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/mens-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/girls-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/boys-clothing.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/activewear</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/sale</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/AST/Factory/FactoryNavigation/factoryfirst.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/order_status.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/shipping_handling.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/returns_exchanges.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/international_orders.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/contact_us.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/gift_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/promo.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/size-charts-module</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/credit_card.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://d.comenity.net/jcrew/</t>
+  </si>
+  <si>
+    <t>https://stores.factory.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://www.jcrew.com/?srcCode=FCFooter</t>
+  </si>
+  <si>
+    <t>https://www.madewell.com/?srcCode=FCFooter</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/mercantile.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/about_jcrewfactory.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://jobs.jcrew.com/</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/new/search?N=0&amp;Nloc=en&amp;Ntrm=chambray%20shirts&amp;Nsrt=&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/blazers_outerwear/vests</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/mens-clothing/jackets_outerwear?Nb=jackets&amp;Nloc=en&amp;Npge=1&amp;Nrpp=60</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/sweaters/cardigans-shells</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/dresses/casualdresses</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jcrewfactory</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+JCrewFactory</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/terms_of_use.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/help/privacy_policy.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/r/context-chooser</t>
+  </si>
+  <si>
+    <t>mailto:contactus@jcrewfactory.com</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/womens_clothing/ValentinesDayShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens_clothing/newbalancexjcrewunder25</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/knits_tees</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens-clothing/socks_and_tights</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/womens_shops/thegetawayshopforwomen.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/womens_shops/AllWeatherShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/womens_shops/instagramfeed</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/mens_clothing/ValentinesDayShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/mens_clothing/BackInStock.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/mens_clothing/backinstock2</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/mens-clothing/dressshirts</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/mens_shops/AllWeatherShop.jsp?sidecar=true</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/girls_clothing/new_arrivals</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/girls-clothing/swim</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/boys_clothing/new_arrivals</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/boys-clothing/pants</t>
+  </si>
+  <si>
+    <t>https://factory.jcrew.com/c/boys-clothing/swim_rashguards</t>
   </si>
 </sst>
 </file>
@@ -719,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,6 +979,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1092,22 +1268,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>168</v>
       </c>
@@ -1127,505 +1303,631 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="42" t="s">
+        <v>173</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="42" t="s">
+        <v>175</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="12"/>
       <c r="E8" s="8"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="43" t="s">
+        <v>183</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="8"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="8"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="1"/>
       <c r="E30" s="8"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="1"/>
       <c r="E31" s="8"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="8"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="8"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="1"/>
       <c r="E36" s="8"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="1"/>
       <c r="E37" s="8"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="1"/>
       <c r="E38" s="8"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="8"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="C40" s="15"/>
       <c r="D40" s="12"/>
       <c r="E40" s="8"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C43" s="15"/>
       <c r="D43" s="1"/>
       <c r="E43" s="8"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="1"/>
       <c r="E44" s="8"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="7"/>
+      <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="1"/>
       <c r="E45" s="8"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="1"/>
       <c r="E46" s="8"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="42" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="1"/>
       <c r="E47" s="8"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="1"/>
       <c r="E48" s="8"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C51" s="10"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C52" s="10"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C54" s="10"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="B55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1633,7 +1935,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1641,7 +1945,9 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1649,7 +1955,9 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1657,7 +1965,9 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1665,7 +1975,9 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1673,7 +1985,9 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1681,7 +1995,9 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1689,7 +2005,9 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1697,7 +2015,9 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="42" t="s">
+        <v>215</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1705,7 +2025,9 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1713,7 +2035,9 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1721,7 +2045,9 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1729,7 +2055,9 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1737,7 +2065,9 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -1745,7 +2075,9 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -1753,7 +2085,9 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -1761,7 +2095,9 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -1769,7 +2105,9 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1777,7 +2115,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="42" t="s">
+        <v>218</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -1785,7 +2125,9 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="42" t="s">
+        <v>219</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -1793,7 +2135,9 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="42" t="s">
+        <v>220</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1801,7 +2145,9 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -1809,7 +2155,9 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -1817,7 +2165,9 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -1825,7 +2175,9 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -1833,7 +2185,9 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -1841,7 +2195,9 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -1849,7 +2205,9 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -1857,7 +2215,9 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -1865,7 +2225,9 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -1873,7 +2235,9 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1881,7 +2245,9 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -1889,7 +2255,9 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1897,7 +2265,9 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -1905,7 +2275,9 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -1913,7 +2285,9 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -1921,7 +2295,9 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -1929,7 +2305,9 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -1937,7 +2315,9 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1945,7 +2325,9 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1953,7 +2335,9 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -1961,7 +2345,9 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -1969,7 +2355,9 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -1977,7 +2365,9 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -1985,7 +2375,9 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -1993,7 +2385,9 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -2001,7 +2395,9 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -2009,7 +2405,9 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -2017,7 +2415,9 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -2025,7 +2425,9 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -2033,7 +2435,9 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -2041,7 +2445,9 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -2049,7 +2455,9 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -2057,7 +2465,9 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -2065,7 +2475,9 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -2073,7 +2485,9 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -2081,7 +2495,9 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -2089,7 +2505,9 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -2097,7 +2515,9 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -2105,7 +2525,9 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -2113,7 +2535,9 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="31" t="s">
+        <v>225</v>
+      </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -2121,7 +2545,9 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -2129,7 +2555,9 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -2137,7 +2565,9 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -2145,7 +2575,9 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -2153,7 +2585,9 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -2161,7 +2595,9 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="31" t="s">
+        <v>158</v>
+      </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -2169,7 +2605,9 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="31" t="s">
+        <v>226</v>
+      </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -2177,7 +2615,9 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -2185,7 +2625,9 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -2193,7 +2635,9 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -2201,7 +2645,9 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="31" t="s">
+        <v>163</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -2209,7 +2655,9 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="31" t="s">
+        <v>165</v>
+      </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -2217,7 +2665,9 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -2225,1365 +2675,26 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="44" t="s">
+        <v>166</v>
+      </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B47" r:id="rId3"/>
+    <hyperlink ref="B56" r:id="rId4"/>
+    <hyperlink ref="B72" r:id="rId5"/>
+    <hyperlink ref="B73" r:id="rId6"/>
+    <hyperlink ref="B74" r:id="rId7"/>
+    <hyperlink ref="B75" r:id="rId8"/>
+    <hyperlink ref="B139" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
